--- a/nodes_source_analyses/energy/households/households_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/households/households_flexibility_p2p_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF9BBA-BF38-6345-88FB-5C443E75E94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F511B65-2E62-3B42-85EB-2FE86C37CAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1000" windowWidth="28800" windowHeight="15940" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,7 +46,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="155">
   <si>
     <t>Source</t>
   </si>
@@ -131,9 +134,6 @@
     <t>availability</t>
   </si>
   <si>
-    <t>free_co2_factor</t>
-  </si>
-  <si>
     <t>forecasting_error</t>
   </si>
   <si>
@@ -188,9 +188,6 @@
     <t>euro/year</t>
   </si>
   <si>
-    <t>Date retrived</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -260,21 +257,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
-  </si>
-  <si>
     <t>full_load_hours</t>
   </si>
   <si>
@@ -299,72 +281,24 @@
     <t>Downloaded from</t>
   </si>
   <si>
-    <t>Wholesale Solar</t>
-  </si>
-  <si>
-    <t>http://www.wholesalesolar.com/1440831/four-star-solar/battery-backup-systems/four-star-solar-backup-power-central-4400-240vac#downloads</t>
-  </si>
-  <si>
-    <t>Initial investment</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
     <t>Exchange rate</t>
   </si>
   <si>
-    <t>USD/EUR</t>
-  </si>
-  <si>
     <t>Storage volume</t>
   </si>
   <si>
-    <t>Wh</t>
-  </si>
-  <si>
-    <t>http://pdf.wholesalesolar.com/inverter%20pdf%20folder/MagnumMS_PAE.pdf?_ga=1.180437863.1125987313.1453824270</t>
-  </si>
-  <si>
     <t>Electrical output capacity</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Input capacity</t>
-  </si>
-  <si>
-    <t>http://pdf.wholesalesolar.com/battery-folder/UPG/ub-gc2-data.pdf?_ga=1.180456423.1125987313.1453824270</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Ah</t>
-  </si>
-  <si>
     <t>Storage decay</t>
   </si>
   <si>
-    <t>Shelf life</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Brochure</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>MWh</t>
   </si>
   <si>
@@ -374,34 +308,7 @@
     <t xml:space="preserve">Initial investment costs </t>
   </si>
   <si>
-    <t>Although many battery backup systems are coming on the market, I decide to use the specifications</t>
-  </si>
-  <si>
-    <t>of the Wholesale Solar Four Star Solar Backup Power Central 4400, 240VAC as this is the only</t>
-  </si>
-  <si>
-    <t>complete system I could find so far, including batteries, inverter, management system and cables.</t>
-  </si>
-  <si>
-    <t>The specifications are downloaded from http://www.wholesalesolar.com/1440831/four-star-solar/battery-backup-systems/four-star-solar-backup-power-central-4400-240vac#downloads</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Electrical efficiency</t>
-  </si>
-  <si>
     <t>Quintel assumption</t>
-  </si>
-  <si>
-    <t>=' Charging capacity?</t>
-  </si>
-  <si>
-    <t>=' input efficiency</t>
-  </si>
-  <si>
-    <t>what does this charge method mean?</t>
   </si>
   <si>
     <r>
@@ -419,21 +326,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.wholesalesolar.com/cms/crown-6crv390-agm-battery-manual-3306454493.pdf</t>
-  </si>
-  <si>
-    <t>For the  Crown 6CRV220, 220Ah 6V Battery no storage decay information is available. So, Storage decay data of our previously used battery is used</t>
-  </si>
-  <si>
-    <t># batteries</t>
-  </si>
-  <si>
-    <t>Total storage volume</t>
-  </si>
-  <si>
-    <t>Storage volume / battery</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
@@ -441,24 +333,224 @@
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
   <si>
-    <t>Storage decay (% per hour)</t>
-  </si>
-  <si>
     <t>% per hour</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>input capacity</t>
+  </si>
+  <si>
+    <t>output capacity</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Zeco Energy Specification sheet</t>
+  </si>
+  <si>
+    <t>https://www.zecoenergy.com.au/wp-content/uploads/2019/02/data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>storage decay</t>
+  </si>
+  <si>
+    <t>storage volume</t>
+  </si>
+  <si>
+    <t>Nominal storage in this case is 10.8 kWh, but usable storage is preferred option at DoD of 90%</t>
+  </si>
+  <si>
+    <t>Based on standby losses and storage volume the storage decay in % of storage volume / hour is determined</t>
+  </si>
+  <si>
+    <t>%/h</t>
+  </si>
+  <si>
+    <t>%/day</t>
+  </si>
+  <si>
+    <t>https://batteryuniversity.com/learn/article/elevating_self_discharge#:~:text=Lead%2D%20and%20lithium%2Dbased%20systems,have%20a%20lower%20self%2Ddischarge.&amp;text=Li%2Dion%20self%2Ddischarges%20about,another%203%20percent%20per%20month.</t>
+  </si>
+  <si>
+    <t>For verification, this seems in range with a 5% in 24h estimated self-discharge for Li-ion given by Batttery University</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>https://www.solarquotes.com.au/blog/hansol-technics-aio-battery-system-dont-call-samsung/</t>
+  </si>
+  <si>
+    <t>Specification sheet AC Side (GRID) - Rated Output Power (kW), which is the same as battery power</t>
+  </si>
+  <si>
+    <t>Specificaiton sheet: Rated Usable Capacity (kWh) for 10.8 size battery storage option</t>
+  </si>
+  <si>
+    <t>Specification sheet Others - Standby Losses (W)</t>
+  </si>
+  <si>
+    <t>Specification sheet:Efficiency - PV to Grid (%)</t>
+  </si>
+  <si>
+    <t>Seems rather high to be considerd the actual roundtrip efficiency (see Solar Quotes Blog)</t>
+  </si>
+  <si>
+    <t>Based on actual performance in Hansol User Manual an actual roundtrip efficiency of 94,5% * 95,5% is more likely</t>
+  </si>
+  <si>
+    <t>https://allenergyhq.com.au/wp-content/uploads/2018/06/manual.pdf</t>
+  </si>
+  <si>
+    <t>Hansol User Manual</t>
+  </si>
+  <si>
+    <t>Solar Quotes</t>
+  </si>
+  <si>
+    <t>investment cost</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$/€</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>These costs are in line with other AIO systems when looking at $/kWh prices at Solar Quotes</t>
+  </si>
+  <si>
+    <t>https://www.solarquotes.com.au/battery-storage/comparison-table/</t>
+  </si>
+  <si>
+    <t>https://www.shop-muenchner-solarmarkt.de/qhome-ess-ac-g2.htm</t>
+  </si>
+  <si>
+    <t>See for example Q.Home battery system of €7450 for 6,5 kWh system</t>
+  </si>
+  <si>
+    <t>battery system choice</t>
+  </si>
+  <si>
+    <t>Li-ion battery system that is ready to implement in homes, also known as All-in-one (AIO) system</t>
+  </si>
+  <si>
+    <t>AIO system is preferred because it means that no additional components need to be bought</t>
+  </si>
+  <si>
+    <t>Li-ion is preferred because it is the dominating home storage system technology on the market</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2352152X19309442#fig0007</t>
+  </si>
+  <si>
+    <t>Fig. 7. Market shares of battery technology with respect to new HSS installations.</t>
+  </si>
+  <si>
+    <t>Home storage system battery technologies market shares in Germany</t>
+  </si>
+  <si>
+    <t>Typical self-discharge from various battery technologies</t>
+  </si>
+  <si>
+    <t>System efficiency from user manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hansol Scalable AIO 10.8</t>
+  </si>
+  <si>
+    <t>Specification sheet</t>
+  </si>
+  <si>
+    <t>Data file</t>
+  </si>
+  <si>
+    <t>User manual</t>
+  </si>
+  <si>
+    <t>ZECO ENERGY</t>
+  </si>
+  <si>
+    <t>Hansol</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Date retrieved</t>
+  </si>
+  <si>
+    <t>Roundtrip efficiency</t>
+  </si>
+  <si>
+    <t>Specification sheet: Battery - Power (kW)</t>
+  </si>
+  <si>
+    <t>storage systems. This system is chosen because it is well documented, because it is</t>
+  </si>
+  <si>
+    <t>and because it seems representative when compared to other storage technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the dataset.</t>
+  </si>
+  <si>
+    <t>There are currently many home battery storage systems on the market.</t>
+  </si>
+  <si>
+    <t>Li-ion is the dominating battery technology for home storage systems.</t>
+  </si>
+  <si>
+    <t>The Hansol Scalable AIO 10.8 storage system is chosen from a large dataset of</t>
+  </si>
+  <si>
+    <t>an AIO (All-in-one) system, meaning that no additional components are required,</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>This is considered to be the roundtrip efficiency.</t>
+  </si>
+  <si>
+    <t>Costs of the 10,8 kWh battery system from Solar Quotes in the dataset</t>
+  </si>
+  <si>
+    <t>Defined as a fraction.</t>
+  </si>
+  <si>
+    <t>Rounded to 90% based on Solar Quotes Blog</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2133</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2134</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,6 +735,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF323232"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -951,7 +1049,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="274">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1226,8 +1324,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1418,7 +1517,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,16 +1526,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,11 +1547,8 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1465,50 +1558,43 @@
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,14 +1623,43 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="274" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="274">
+  <cellStyles count="275">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1818,6 +1933,7 @@
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1837,23 +1953,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14109</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274175</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>103405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299FAC11-40EC-C948-9153-7595A8EA9D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,8 +1985,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5930900" y="2451100"/>
-          <a:ext cx="6400800" cy="7480300"/>
+          <a:off x="691442" y="6307668"/>
+          <a:ext cx="9446400" cy="13367848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1881,23 +1997,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42335</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2665071</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2875846</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DE944D-3BA9-3E43-BAE5-F347D032F259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,8 +2029,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5727700" y="17437100"/>
-          <a:ext cx="6678271" cy="3136900"/>
+          <a:off x="10385779" y="6829778"/>
+          <a:ext cx="7772400" cy="5299867"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1923,130 +2039,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3416300" cy="1785104"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1358900" y="6896100"/>
-          <a:ext cx="3416300" cy="1785104"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>We would (in the end) probably need (but this can be modelled in various ways):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>input_capacity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>input_efficiency</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>storage_volume</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>storage_decay</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>output_capacity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>output_efficiency</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>850899</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>726</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>2875845</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>18345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFFECB7-6B1E-E34B-974A-8A6C0BD35FCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,8 +2073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5918199" y="10261600"/>
-          <a:ext cx="6426927" cy="2438400"/>
+          <a:off x="10893778" y="12756445"/>
+          <a:ext cx="7264400" cy="2882900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,44 +2085,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>74340</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133079</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>155220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2120900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1892300</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5B15DC-BAC1-414F-8738-FF332EB069D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5969000" y="849040"/>
-          <a:ext cx="5308600" cy="2516460"/>
+          <a:off x="10476523" y="16763998"/>
+          <a:ext cx="6698110" cy="3611033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2561,13 +2589,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="14"/>
+    <col min="1" max="1" width="3.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1">
@@ -2593,16 +2621,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2627,7 +2655,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="71"/>
@@ -2641,10 +2669,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="72"/>
     </row>
@@ -2652,7 +2680,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="54"/>
       <c r="C12" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="72"/>
     </row>
@@ -2660,7 +2688,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="54"/>
       <c r="C13" s="57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="72"/>
     </row>
@@ -2668,7 +2696,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="54"/>
       <c r="C14" s="55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="72"/>
     </row>
@@ -2681,10 +2709,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="72"/>
     </row>
@@ -2692,7 +2720,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="54"/>
       <c r="C17" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="72"/>
     </row>
@@ -2700,7 +2728,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="54"/>
       <c r="C18" s="60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="72"/>
     </row>
@@ -2708,7 +2736,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="54"/>
       <c r="C19" s="61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="72"/>
     </row>
@@ -2716,7 +2744,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="62"/>
       <c r="C20" s="63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="72"/>
     </row>
@@ -2724,7 +2752,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="72"/>
     </row>
@@ -2732,14 +2760,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="62"/>
       <c r="C22" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="72"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="62"/>
       <c r="C23" s="66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="72"/>
     </row>
@@ -2759,25 +2787,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="83" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="83" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="83" customWidth="1"/>
     <col min="3" max="3" width="46" style="83" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="83" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="83" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="83" customWidth="1"/>
     <col min="7" max="7" width="45" style="83" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="83" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="83" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="83" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="83"/>
+    <col min="8" max="8" width="5.140625" style="83" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="83" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" customHeight="1">
@@ -2787,28 +2815,28 @@
       <c r="G1" s="84"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
+      <c r="B2" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
     </row>
@@ -2861,7 +2889,7 @@
     <row r="9" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="93"/>
       <c r="C9" s="94" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="94"/>
@@ -2874,149 +2902,155 @@
     <row r="10" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="93"/>
       <c r="C10" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="143">
+        <v>70</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="137">
         <f>'Research data'!G6</f>
-        <v>1.9800000000000002E-2</v>
+        <v>9.7200000000000012E-3</v>
       </c>
       <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-      <c r="I10" s="144" t="s">
-        <v>80</v>
+      <c r="G10" s="175"/>
+      <c r="I10" s="174" t="s">
+        <v>133</v>
       </c>
       <c r="J10" s="96"/>
     </row>
     <row r="11" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="93"/>
       <c r="C11" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="164">
+        <v>71</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="147">
         <f>'Research data'!G7</f>
-        <v>4.1095890410958905E-5</v>
+        <v>2.5720164609053498E-3</v>
       </c>
       <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="I11" s="144" t="s">
-        <v>80</v>
+      <c r="G11" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="174" t="s">
+        <v>133</v>
       </c>
       <c r="J11" s="96"/>
     </row>
     <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="93"/>
-      <c r="C12" s="148" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="110" t="s">
+      <c r="C12" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="109" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="107">
         <f>'Research data'!G10</f>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-      <c r="I12" s="144" t="s">
-        <v>80</v>
+      <c r="G12" s="175" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="174" t="s">
+        <v>134</v>
       </c>
       <c r="J12" s="96"/>
     </row>
     <row r="13" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="93"/>
       <c r="C13" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="143">
+        <v>29</v>
+      </c>
+      <c r="D13" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="137">
         <f>'Research data'!G9</f>
-        <v>4.4000000000000003E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-      <c r="I13" s="144" t="s">
-        <v>80</v>
+      <c r="G13" s="175"/>
+      <c r="I13" s="174" t="s">
+        <v>133</v>
       </c>
       <c r="J13" s="96"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="107">
-        <v>1</v>
+    <row r="14" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B14" s="93"/>
+      <c r="C14" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="137">
+        <f>'Research data'!G8</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="I14" s="144" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="98"/>
-      <c r="K14" s="84"/>
+      <c r="G14" s="175"/>
+      <c r="I14" s="174" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="97"/>
       <c r="C15" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="111">
-        <v>0</v>
+      <c r="E15" s="107">
+        <v>1</v>
       </c>
       <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="I15" s="144" t="s">
-        <v>111</v>
+      <c r="G15" s="175"/>
+      <c r="I15" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="98"/>
       <c r="K15" s="84"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="97"/>
-      <c r="C16" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="110" t="s">
+      <c r="C16" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="110">
         <v>0</v>
       </c>
       <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="I16" s="144" t="s">
-        <v>111</v>
+      <c r="G16" s="175"/>
+      <c r="I16" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="84"/>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B17" s="97"/>
-      <c r="C17" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="110" t="s">
+      <c r="C17" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="111">
+      <c r="E17" s="110">
         <v>0</v>
       </c>
       <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="I17" s="144" t="s">
-        <v>111</v>
+      <c r="G17" s="175"/>
+      <c r="I17" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J17" s="98"/>
       <c r="K17" s="84"/>
@@ -3024,18 +3058,18 @@
     <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="97"/>
       <c r="C18" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="110">
         <v>0</v>
       </c>
       <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="I18" s="144" t="s">
-        <v>111</v>
+      <c r="G18" s="175"/>
+      <c r="I18" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J18" s="98"/>
       <c r="K18" s="84"/>
@@ -3043,18 +3077,18 @@
     <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="97"/>
       <c r="C19" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="112">
         <v>0</v>
       </c>
       <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="I19" s="144" t="s">
-        <v>111</v>
+      <c r="G19" s="175"/>
+      <c r="I19" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J19" s="98"/>
       <c r="K19" s="84"/>
@@ -3062,36 +3096,43 @@
     <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="97"/>
       <c r="C20" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="114">
+        <v>28</v>
+      </c>
+      <c r="D20" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="112">
         <v>0</v>
       </c>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
-      <c r="I20" s="144" t="s">
-        <v>111</v>
+      <c r="I20" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J20" s="98"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1">
+      <c r="K20" s="84"/>
+    </row>
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="97"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="C21" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="113">
+        <v>0</v>
+      </c>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="I21" s="138" t="s">
+        <v>82</v>
+      </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1">
       <c r="B22" s="97"/>
-      <c r="C22" s="94" t="s">
-        <v>61</v>
-      </c>
+      <c r="C22" s="99"/>
       <c r="D22" s="100"/>
       <c r="E22" s="101"/>
       <c r="F22" s="84"/>
@@ -3101,37 +3142,31 @@
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="97"/>
-      <c r="C23" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="111">
-        <f>'Research data'!G13</f>
-        <v>7147.59</v>
-      </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="I23" s="144" t="s">
-        <v>111</v>
-      </c>
+      <c r="C23" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="I23" s="84"/>
       <c r="J23" s="98"/>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="97"/>
       <c r="C24" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="111">
-        <v>0</v>
+      <c r="E24" s="110">
+        <f>'Research data'!G13</f>
+        <v>11373.6</v>
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
-      <c r="I24" s="144" t="s">
+      <c r="I24" s="174" t="s">
         <v>111</v>
       </c>
       <c r="J24" s="98"/>
@@ -3139,144 +3174,150 @@
     <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="97"/>
       <c r="C25" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="111">
+      <c r="E25" s="110">
         <v>0</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
-      <c r="I25" s="144" t="s">
-        <v>111</v>
+      <c r="I25" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J25" s="98"/>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="97"/>
       <c r="C26" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="111">
+      <c r="E26" s="110">
         <v>0</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="108"/>
-      <c r="I26" s="144" t="s">
-        <v>111</v>
+      <c r="I26" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J26" s="98"/>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="97"/>
       <c r="C27" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="115">
+        <v>33</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="110">
         <v>0</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="108"/>
-      <c r="I27" s="144" t="s">
-        <v>111</v>
+      <c r="I27" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J27" s="98"/>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="97"/>
       <c r="C28" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="107">
+      <c r="E28" s="114">
         <v>0</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
-      <c r="I28" s="144" t="s">
-        <v>111</v>
+      <c r="I28" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J28" s="98"/>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="97"/>
       <c r="C29" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="116">
+        <v>35</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="107">
         <v>0</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
-      <c r="I29" s="144" t="s">
-        <v>111</v>
+      <c r="I29" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J29" s="98"/>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="97"/>
       <c r="C30" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="107">
-        <v>0.02</v>
+      <c r="E30" s="115">
+        <v>0</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="108"/>
-      <c r="I30" s="152" t="s">
-        <v>122</v>
+      <c r="I30" s="138" t="s">
+        <v>82</v>
       </c>
       <c r="J30" s="98"/>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="97"/>
       <c r="C31" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="111">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="107">
+        <v>0.02</v>
       </c>
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
-      <c r="I31" s="144" t="s">
-        <v>111</v>
+      <c r="I31" s="145" t="s">
+        <v>85</v>
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="97"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="I32" s="84"/>
+      <c r="C32" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="110">
+        <v>0</v>
+      </c>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="I32" s="138" t="s">
+        <v>82</v>
+      </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1">
       <c r="B33" s="97"/>
-      <c r="C33" s="94" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="84"/>
       <c r="D33" s="100"/>
       <c r="E33" s="102"/>
       <c r="F33" s="84"/>
@@ -3286,166 +3327,80 @@
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="97"/>
-      <c r="C34" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="111">
-        <v>0</v>
-      </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="I34" s="145" t="s">
-        <v>111</v>
-      </c>
+      <c r="C34" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="I34" s="84"/>
       <c r="J34" s="98"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="97"/>
       <c r="C35" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="115">
+        <v>25</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="110">
         <v>0</v>
       </c>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
-      <c r="I35" s="145" t="s">
-        <v>111</v>
+      <c r="I35" s="139" t="s">
+        <v>82</v>
       </c>
       <c r="J35" s="98"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="97"/>
       <c r="C36" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="111">
-        <v>10</v>
+      <c r="E36" s="114">
+        <v>0</v>
       </c>
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
-      <c r="I36" s="145" t="s">
-        <v>111</v>
+      <c r="I36" s="139" t="s">
+        <v>82</v>
       </c>
       <c r="J36" s="98"/>
     </row>
     <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B37" s="97"/>
       <c r="C37" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="111">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="110">
+        <v>10</v>
       </c>
       <c r="F37" s="108"/>
       <c r="G37" s="108"/>
-      <c r="I37" s="145" t="s">
-        <v>111</v>
+      <c r="I37" s="139" t="s">
+        <v>82</v>
       </c>
       <c r="J37" s="98"/>
     </row>
     <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="115">
-        <v>0</v>
-      </c>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="I38" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="98"/>
-    </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="115">
-        <v>0</v>
-      </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="I39" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="98"/>
-    </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="115">
-        <v>0</v>
-      </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="I40" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="J40" s="98"/>
-    </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="115">
-        <v>0</v>
-      </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="I41" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="98"/>
-    </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="115">
-        <v>0</v>
-      </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="I42" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="98"/>
-    </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="105"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3464,23 +3419,23 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="38" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="38" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="38" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" customWidth="1"/>
     <col min="9" max="9" width="16" style="38" customWidth="1"/>
     <col min="10" max="10" width="3" style="39" customWidth="1"/>
     <col min="11" max="11" width="60" style="38" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="10.6640625" style="38"/>
+    <col min="12" max="12" width="2.140625" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -3500,7 +3455,7 @@
     <row r="3" spans="2:12" s="16" customFormat="1">
       <c r="B3" s="15"/>
       <c r="C3" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3508,13 +3463,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
       <c r="J3" s="36"/>
       <c r="K3" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" s="77"/>
     </row>
@@ -3534,7 +3489,7 @@
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="43"/>
       <c r="C5" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -3548,110 +3503,112 @@
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="43"/>
-      <c r="C6" s="136" t="s">
-        <v>86</v>
+      <c r="C6" s="134" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="70">
-        <f>Notes!E11/1000000</f>
-        <v>1.9800000000000002E-2</v>
+      <c r="F6" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="172">
+        <f>Notes!E19/1000</f>
+        <v>9.7200000000000012E-3</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="45"/>
-      <c r="K6" s="141" t="s">
-        <v>105</v>
+      <c r="K6" s="169" t="s">
+        <v>143</v>
       </c>
       <c r="L6" s="78"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="136" t="s">
-        <v>97</v>
+      <c r="C7" s="134" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="163" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="139">
-        <f>Notes!E84</f>
-        <v>4.1095890410958905E-5</v>
+      <c r="F7" s="176" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="172">
+        <f>Notes!E23/100</f>
+        <v>2.5720164609053498E-3</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="141" t="s">
-        <v>106</v>
+      <c r="K7" s="169" t="s">
+        <v>144</v>
       </c>
       <c r="L7" s="78"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="43"/>
-      <c r="C8" s="136" t="s">
-        <v>103</v>
+      <c r="C8" s="134" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="138">
-        <f>Notes!E40/1000000</f>
-        <v>4.4000000000000003E-3</v>
+      <c r="F8" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="70">
+        <f>Notes!E16/1000</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="141" t="s">
-        <v>107</v>
+      <c r="K8" s="169" t="s">
+        <v>145</v>
       </c>
       <c r="L8" s="78"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="43"/>
-      <c r="C9" s="136" t="s">
-        <v>89</v>
+      <c r="C9" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="140">
-        <f>Notes!E32/1000000</f>
-        <v>4.4000000000000003E-3</v>
+      <c r="F9" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="173">
+        <f>Notes!E17/1000</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="45"/>
-      <c r="K9" s="141" t="s">
-        <v>108</v>
+      <c r="K9" s="169" t="s">
+        <v>140</v>
       </c>
       <c r="L9" s="78"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="43"/>
-      <c r="C10" s="136" t="s">
-        <v>110</v>
+      <c r="C10" s="171" t="s">
+        <v>138</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="137" t="s">
+      <c r="F10" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="142">
-        <f>Notes!E38</f>
-        <v>0.85</v>
+      <c r="G10" s="136">
+        <f>Notes!E31</f>
+        <v>0.9</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="169" t="s">
+        <v>146</v>
+      </c>
       <c r="L10" s="78"/>
     </row>
     <row r="11" spans="2:12">
@@ -3664,12 +3621,15 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
+      <c r="K11" s="162" t="s">
+        <v>141</v>
+      </c>
       <c r="L11" s="78"/>
     </row>
     <row r="12" spans="2:12" ht="17" thickBot="1">
       <c r="B12" s="43"/>
       <c r="C12" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3678,22 +3638,24 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="37" t="s">
+        <v>142</v>
+      </c>
       <c r="L12" s="78"/>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="43"/>
-      <c r="C13" s="136" t="s">
-        <v>104</v>
+      <c r="C13" s="134" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="136" t="s">
-        <v>83</v>
+      <c r="F13" s="134" t="s">
+        <v>73</v>
       </c>
       <c r="G13" s="51">
-        <f>Notes!E8</f>
-        <v>7147.59</v>
+        <f>Notes!E14</f>
+        <v>11373.6</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -3725,24 +3687,24 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K7"/>
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="23" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="23" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="24" customWidth="1"/>
     <col min="11" max="11" width="66" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="23"/>
+    <col min="12" max="16384" width="33.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -3800,13 +3762,13 @@
         <v>20</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>12</v>
@@ -3814,22 +3776,80 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="23" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="134">
-        <v>2016</v>
-      </c>
-      <c r="I7" s="135">
-        <v>42397</v>
+        <v>135</v>
+      </c>
+      <c r="G7" s="133">
+        <v>44133</v>
+      </c>
+      <c r="H7" s="132">
+        <v>2018</v>
+      </c>
+      <c r="I7" s="133">
+        <v>44141</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>81</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="170">
+        <v>43497</v>
+      </c>
+      <c r="H8" s="167" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="133">
+        <v>44141</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="170">
+        <v>43252</v>
+      </c>
+      <c r="H9" s="168">
+        <v>42675</v>
+      </c>
+      <c r="I9" s="133">
+        <v>44141</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3845,58 +3865,59 @@
   </sheetPr>
   <dimension ref="B2:K166"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView zoomScale="118" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="118" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="118" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="118" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="118" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="118" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="118"/>
-    <col min="8" max="8" width="10.6640625" style="119"/>
-    <col min="9" max="9" width="10.6640625" style="118"/>
-    <col min="10" max="10" width="35" style="118" customWidth="1"/>
-    <col min="11" max="11" width="63.33203125" style="118" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="118"/>
+    <col min="1" max="1" width="3.42578125" style="116" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="116" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="116" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="116" customWidth="1"/>
+    <col min="5" max="5" width="15" style="116" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="116" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="116"/>
+    <col min="8" max="8" width="10.7109375" style="117"/>
+    <col min="9" max="9" width="10.7109375" style="116"/>
+    <col min="10" max="10" width="55.5703125" style="116" customWidth="1"/>
+    <col min="11" max="11" width="80.5703125" style="116" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="116"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="123"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="124"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="125" t="s">
+      <c r="D4" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="127" t="s">
-        <v>79</v>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="125" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3906,199 +3927,184 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="128"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="77"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="15"/>
-      <c r="C6" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="130" t="s">
-        <v>81</v>
+      <c r="C6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="161" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="162"/>
+      <c r="G7" s="162" t="s">
+        <v>122</v>
+      </c>
       <c r="K7" s="77"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="129">
-        <f>(6428+1603)*E9</f>
-        <v>7147.59</v>
-      </c>
-      <c r="F8" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="77"/>
+      <c r="G8" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="160" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="129">
-        <v>0.89</v>
-      </c>
-      <c r="F9" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="77"/>
+      <c r="K9" s="160"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="15"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="77"/>
+      <c r="C10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="162" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="116">
+        <v>13540</v>
+      </c>
+      <c r="F10" s="162" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="161" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="129">
-        <f>E68</f>
-        <v>19800</v>
-      </c>
-      <c r="F11" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="77"/>
+      <c r="G11" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="160" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="77"/>
+      <c r="G12" s="162" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" s="160" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="15"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="E13" s="116">
+        <v>0.84</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>74</v>
+      </c>
       <c r="K13" s="77"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="E14" s="157">
+        <f>E13*E10</f>
+        <v>11373.6</v>
+      </c>
+      <c r="F14" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="157"/>
       <c r="K14" s="77"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
       <c r="K15" s="77"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="15"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="128"/>
+      <c r="C16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="157">
+        <v>5</v>
+      </c>
+      <c r="F16" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="157" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="126"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="161" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="128"/>
+      <c r="D17" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="127">
+        <v>5</v>
+      </c>
+      <c r="F17" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="157" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="126"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="77"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="15"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="128"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="77"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="128"/>
+      <c r="D19" s="162" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="116">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F19" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="126"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="77"/>
@@ -4106,11 +4112,10 @@
     <row r="20" spans="2:11">
       <c r="B20" s="15"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="128"/>
+      <c r="G20" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="126"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="77"/>
@@ -4118,51 +4123,57 @@
     <row r="21" spans="2:11">
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="128"/>
+      <c r="H21" s="126"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="77"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="131"/>
-      <c r="C22" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="162" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="116">
+        <v>25</v>
+      </c>
+      <c r="F22" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="126"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="130"/>
+      <c r="K22" s="77"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="15"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="128"/>
+      <c r="E23" s="158">
+        <f>E22/(E19*1000)*100</f>
+        <v>0.25720164609053497</v>
+      </c>
+      <c r="F23" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="126"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="151" t="s">
-        <v>88</v>
-      </c>
+      <c r="K23" s="77"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="128"/>
+      <c r="H24" s="126"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="77"/>
@@ -4171,13 +4182,22 @@
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="128"/>
+      <c r="E25" s="163">
+        <f>E22*24/(E19*1000)*100</f>
+        <v>6.1728395061728394</v>
+      </c>
+      <c r="F25" s="157" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="126"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="77"/>
+      <c r="K25" s="161" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="15"/>
@@ -4186,246 +4206,259 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="128"/>
+      <c r="H26" s="126"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="77"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="15"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="77"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="128"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="157">
+        <v>0.96</v>
+      </c>
+      <c r="F28" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="164"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="144"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="77"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="164"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="161" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="15"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="77"/>
+      <c r="C30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="164">
+        <f>0.955*0.945</f>
+        <v>0.90247499999999992</v>
+      </c>
+      <c r="F30" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="164"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="161" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="77"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="164">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="164"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="160"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="15"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="129">
-        <v>4400</v>
-      </c>
-      <c r="F32" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="77"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="160"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="77"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="160"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="77"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="160"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="77"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="160"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="77"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="160"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="77"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="160"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="129">
-        <v>0.85</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="77"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="160"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="77"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="160"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="129" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="129">
-        <f>E32</f>
-        <v>4400</v>
-      </c>
-      <c r="F40" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="77"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="160"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="77"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="160"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="77"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="160"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="15"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="77"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="160"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="77"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="160"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="15"/>
@@ -4434,7 +4467,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="128"/>
+      <c r="H45" s="126"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="77"/>
@@ -4446,7 +4479,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="128"/>
+      <c r="H46" s="126"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="77"/>
@@ -4458,7 +4491,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="128"/>
+      <c r="H47" s="126"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="77"/>
@@ -4470,7 +4503,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="128"/>
+      <c r="H48" s="126"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="77"/>
@@ -4478,11 +4511,11 @@
     <row r="49" spans="2:11">
       <c r="B49" s="15"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="129"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="128"/>
+      <c r="H49" s="126"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="77"/>
@@ -4494,1434 +4527,1387 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="128"/>
+      <c r="H50" s="126"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="77"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="131"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="130"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="128"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="131"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="130"/>
+      <c r="B52" s="129"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="128"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="131"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="130"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="128"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="131"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="130"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="128"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="131"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="130"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="128"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="131"/>
-      <c r="C56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="130"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="128"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="131"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="130"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="128"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="131"/>
-      <c r="C58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="130"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="128"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="131"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="130"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="128"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="131"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="130"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="128"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="131"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="130"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="128"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="131"/>
-      <c r="C62" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="128"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="131"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
-      <c r="K63" s="130" t="s">
-        <v>116</v>
-      </c>
+      <c r="B63" s="129"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" s="128"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="131"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="129">
-        <v>6</v>
-      </c>
-      <c r="F64" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" s="129"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="129"/>
-      <c r="K64" s="130"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="128"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="131"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="129">
-        <v>220</v>
-      </c>
-      <c r="F65" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" s="129"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="129"/>
-      <c r="J65" s="129"/>
-      <c r="K65" s="130"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="128"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="131"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="129">
-        <f>E64*E65</f>
-        <v>1320</v>
-      </c>
-      <c r="F66" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="129"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="129"/>
-      <c r="J66" s="129"/>
-      <c r="K66" s="130"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="128"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="131"/>
-      <c r="C67" s="129"/>
-      <c r="D67" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="129">
-        <v>15</v>
-      </c>
-      <c r="F67" s="129"/>
-      <c r="G67" s="129"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="129"/>
-      <c r="J67" s="129"/>
-      <c r="K67" s="130"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="128"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="131"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="E68" s="129">
-        <f>E66*E67</f>
-        <v>19800</v>
-      </c>
-      <c r="F68" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" s="129"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="129"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="130"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="143"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="128"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="131"/>
-      <c r="C69" s="129"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="129"/>
-      <c r="J69" s="129"/>
-      <c r="K69" s="130"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="128"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="131"/>
-      <c r="C70" s="129"/>
-      <c r="G70" s="129"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="129"/>
-      <c r="J70" s="129"/>
-      <c r="K70" s="130"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="127"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="128"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="131"/>
-      <c r="C71" s="129"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="129"/>
-      <c r="J71" s="129"/>
-      <c r="K71" s="130"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="127"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="128"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="131"/>
-      <c r="C72" s="129"/>
-      <c r="G72" s="129"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="129"/>
-      <c r="J72" s="129"/>
-      <c r="K72" s="130"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="127"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="127"/>
+      <c r="K72" s="128"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="131"/>
-      <c r="C73" s="129"/>
-      <c r="G73" s="129"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="129"/>
-      <c r="J73" s="129"/>
-      <c r="K73" s="147" t="s">
-        <v>114</v>
-      </c>
+      <c r="B73" s="129"/>
+      <c r="C73" s="127"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="128"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="131"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="129"/>
-      <c r="J74" s="129"/>
-      <c r="K74" s="130"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="127"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="128"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="131"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="129"/>
-      <c r="K75" s="130"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="128"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="131"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="129"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="129"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="129"/>
-      <c r="J76" s="129"/>
-      <c r="K76" s="130"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="128"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="131"/>
-      <c r="C77" s="129"/>
-      <c r="D77" s="129"/>
-      <c r="E77" s="129"/>
-      <c r="F77" s="129"/>
-      <c r="G77" s="129"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="129"/>
-      <c r="J77" s="129"/>
-      <c r="K77" s="130"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="128"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="131"/>
-      <c r="C78" s="129"/>
-      <c r="G78" s="129"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="129"/>
-      <c r="J78" s="129"/>
-      <c r="K78" s="130"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="127"/>
+      <c r="G78" s="127"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="128"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="131"/>
-      <c r="C79" s="129"/>
-      <c r="G79" s="129"/>
-      <c r="H79" s="132"/>
-      <c r="I79" s="129"/>
-      <c r="J79" s="129"/>
-      <c r="K79" s="130"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="127"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="130"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="128"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="131"/>
-      <c r="C80" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="149" t="s">
-        <v>117</v>
-      </c>
-      <c r="G80" s="129"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="129"/>
-      <c r="J80" s="129"/>
-      <c r="K80" s="130"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="142"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="130"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="128"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="131"/>
-      <c r="C81" s="129"/>
-      <c r="D81" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="129">
-        <f>(1-0.64)*E66</f>
-        <v>475.2</v>
-      </c>
-      <c r="F81" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" s="129"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="129"/>
-      <c r="J81" s="129"/>
-      <c r="K81" s="130" t="s">
-        <v>92</v>
-      </c>
+      <c r="B81" s="129"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="128"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="131"/>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="129">
-        <v>8760</v>
-      </c>
-      <c r="F82" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" s="129"/>
-      <c r="H82" s="132"/>
-      <c r="I82" s="129"/>
-      <c r="J82" s="129"/>
-      <c r="K82" s="130"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="127"/>
+      <c r="K82" s="128"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="131"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="132"/>
-      <c r="I83" s="129"/>
-      <c r="J83" s="129"/>
-      <c r="K83" s="130"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="K83" s="128"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="131"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="129">
-        <f>E81/E66/E82</f>
-        <v>4.1095890410958905E-5</v>
-      </c>
-      <c r="F84" s="162" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="129"/>
-      <c r="H84" s="132"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="129"/>
-      <c r="K84" s="130"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="146"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="128"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="131"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
-      <c r="F85" s="129"/>
-      <c r="G85" s="129"/>
-      <c r="H85" s="132"/>
-      <c r="I85" s="129"/>
-      <c r="J85" s="129"/>
-      <c r="K85" s="130"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="127"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="127"/>
+      <c r="J85" s="127"/>
+      <c r="K85" s="128"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="131"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="129"/>
-      <c r="G86" s="129"/>
-      <c r="H86" s="132"/>
-      <c r="I86" s="129"/>
-      <c r="J86" s="129"/>
-      <c r="K86" s="130"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="130"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="128"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="131"/>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="129"/>
-      <c r="G87" s="129"/>
-      <c r="H87" s="132"/>
-      <c r="I87" s="129"/>
-      <c r="J87" s="129"/>
-      <c r="K87" s="130"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="128"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="131"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="132"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
-      <c r="K88" s="130"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="128"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="131"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="132"/>
-      <c r="I89" s="129"/>
-      <c r="J89" s="129"/>
-      <c r="K89" s="130"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="157"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="157"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="128"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="131"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="129"/>
-      <c r="G90" s="129"/>
-      <c r="H90" s="132"/>
-      <c r="I90" s="129"/>
-      <c r="J90" s="129"/>
-      <c r="K90" s="130"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="157"/>
+      <c r="E90" s="157"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="128"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="131"/>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
-      <c r="F91" s="129"/>
-      <c r="G91" s="129"/>
-      <c r="H91" s="132"/>
-      <c r="I91" s="129"/>
-      <c r="J91" s="129"/>
-      <c r="K91" s="130"/>
+      <c r="B91" s="129"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="157"/>
+      <c r="F91" s="157"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="127"/>
+      <c r="J91" s="127"/>
+      <c r="K91" s="128"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="131"/>
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="129"/>
-      <c r="F92" s="129"/>
-      <c r="G92" s="129"/>
-      <c r="H92" s="132"/>
-      <c r="I92" s="129"/>
-      <c r="J92" s="129"/>
-      <c r="K92" s="130"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="157"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="157"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="128"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="131"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="132"/>
-      <c r="I93" s="129"/>
-      <c r="J93" s="129"/>
-      <c r="K93" s="130"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="159"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="127"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="127"/>
+      <c r="J93" s="127"/>
+      <c r="K93" s="128"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="131"/>
-      <c r="C94" s="129"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="129"/>
-      <c r="F94" s="129"/>
-      <c r="G94" s="129"/>
-      <c r="H94" s="132"/>
-      <c r="I94" s="129"/>
-      <c r="J94" s="129"/>
-      <c r="K94" s="130"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="130"/>
+      <c r="I94" s="127"/>
+      <c r="J94" s="127"/>
+      <c r="K94" s="128"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="131"/>
-      <c r="C95" s="129"/>
-      <c r="D95" s="129"/>
-      <c r="E95" s="129"/>
-      <c r="F95" s="129"/>
-      <c r="G95" s="129"/>
-      <c r="H95" s="132"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="130"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="127"/>
+      <c r="E95" s="127"/>
+      <c r="F95" s="127"/>
+      <c r="G95" s="127"/>
+      <c r="H95" s="130"/>
+      <c r="I95" s="127"/>
+      <c r="J95" s="127"/>
+      <c r="K95" s="128"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="131"/>
-      <c r="C96" s="129"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="129"/>
-      <c r="F96" s="129"/>
-      <c r="G96" s="129"/>
-      <c r="H96" s="132"/>
-      <c r="I96" s="129"/>
-      <c r="J96" s="129"/>
-      <c r="K96" s="130"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="127"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="127"/>
+      <c r="G96" s="127"/>
+      <c r="H96" s="130"/>
+      <c r="I96" s="127"/>
+      <c r="J96" s="127"/>
+      <c r="K96" s="128"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="131"/>
-      <c r="C97" s="129"/>
-      <c r="D97" s="129"/>
-      <c r="E97" s="129"/>
-      <c r="F97" s="129"/>
-      <c r="G97" s="129"/>
-      <c r="H97" s="132"/>
-      <c r="I97" s="129"/>
-      <c r="J97" s="129"/>
-      <c r="K97" s="130"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="127"/>
+      <c r="F97" s="127"/>
+      <c r="G97" s="127"/>
+      <c r="H97" s="130"/>
+      <c r="I97" s="127"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="128"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="131"/>
-      <c r="C98" s="129"/>
-      <c r="D98" s="129"/>
-      <c r="E98" s="129"/>
-      <c r="F98" s="129"/>
-      <c r="G98" s="129"/>
-      <c r="H98" s="132"/>
-      <c r="I98" s="129"/>
-      <c r="J98" s="129"/>
-      <c r="K98" s="130"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="127"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="127"/>
+      <c r="F98" s="127"/>
+      <c r="G98" s="127"/>
+      <c r="H98" s="130"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="128"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="131"/>
-      <c r="C99" s="129"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="129"/>
-      <c r="F99" s="129"/>
-      <c r="G99" s="129"/>
-      <c r="H99" s="132"/>
-      <c r="I99" s="129"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="130"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="127"/>
+      <c r="H99" s="130"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="128"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="131"/>
-      <c r="C100" s="129"/>
-      <c r="D100" s="129"/>
-      <c r="E100" s="129"/>
-      <c r="F100" s="129"/>
-      <c r="G100" s="129"/>
-      <c r="H100" s="132"/>
-      <c r="I100" s="129"/>
-      <c r="J100" s="129"/>
-      <c r="K100" s="130"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="130"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="127"/>
+      <c r="K100" s="128"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="131"/>
-      <c r="C101" s="129"/>
-      <c r="D101" s="129"/>
-      <c r="E101" s="129"/>
-      <c r="F101" s="129"/>
-      <c r="G101" s="129"/>
-      <c r="H101" s="132"/>
-      <c r="I101" s="129"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="130"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+      <c r="H101" s="130"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="127"/>
+      <c r="K101" s="128"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="131"/>
-      <c r="C102" s="129"/>
-      <c r="D102" s="129"/>
-      <c r="E102" s="129"/>
-      <c r="F102" s="129"/>
-      <c r="G102" s="129"/>
-      <c r="H102" s="132"/>
-      <c r="I102" s="129"/>
-      <c r="J102" s="129"/>
-      <c r="K102" s="130"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
+      <c r="H102" s="130"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="127"/>
+      <c r="K102" s="128"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="131"/>
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
-      <c r="F103" s="129"/>
-      <c r="G103" s="129"/>
-      <c r="H103" s="132"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="130"/>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="131"/>
-      <c r="C104" s="129"/>
-      <c r="D104" s="129"/>
-      <c r="E104" s="129"/>
-      <c r="F104" s="129"/>
-      <c r="G104" s="129"/>
-      <c r="H104" s="132"/>
-      <c r="I104" s="129"/>
-      <c r="J104" s="129"/>
-      <c r="K104" s="130"/>
+      <c r="B103" s="129"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="130"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="127"/>
+      <c r="K103" s="128"/>
+    </row>
+    <row r="104" spans="2:11" ht="21">
+      <c r="B104" s="129"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+      <c r="H104" s="130"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="166" t="s">
+        <v>125</v>
+      </c>
+      <c r="K104" s="128"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="131"/>
-      <c r="C105" s="129"/>
-      <c r="D105" s="129"/>
-      <c r="E105" s="129"/>
-      <c r="F105" s="129"/>
-      <c r="G105" s="129"/>
-      <c r="H105" s="132"/>
-      <c r="I105" s="129"/>
-      <c r="J105" s="129"/>
-      <c r="K105" s="130"/>
+      <c r="B105" s="129"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="127"/>
+      <c r="F105" s="127"/>
+      <c r="G105" s="127"/>
+      <c r="H105" s="130"/>
+      <c r="I105" s="127"/>
+      <c r="J105" s="127"/>
+      <c r="K105" s="128"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="131"/>
-      <c r="C106" s="129"/>
-      <c r="D106" s="129"/>
-      <c r="E106" s="129"/>
-      <c r="F106" s="129"/>
-      <c r="G106" s="129"/>
-      <c r="H106" s="132"/>
-      <c r="I106" s="129"/>
-      <c r="J106" s="129"/>
-      <c r="K106" s="130"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="127"/>
+      <c r="H106" s="130"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="127"/>
+      <c r="K106" s="128"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="131"/>
-      <c r="C107" s="129"/>
-      <c r="D107" s="129"/>
-      <c r="E107" s="129"/>
-      <c r="F107" s="129"/>
-      <c r="G107" s="129"/>
-      <c r="H107" s="132"/>
-      <c r="I107" s="129"/>
-      <c r="J107" s="129"/>
-      <c r="K107" s="130"/>
+      <c r="B107" s="129"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="127"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="130"/>
+      <c r="I107" s="127"/>
+      <c r="J107" s="127"/>
+      <c r="K107"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="131"/>
-      <c r="C108" s="129"/>
-      <c r="D108" s="129"/>
-      <c r="E108" s="129"/>
-      <c r="F108" s="129"/>
-      <c r="G108" s="129"/>
-      <c r="H108" s="132"/>
-      <c r="I108" s="129"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="130"/>
+      <c r="B108" s="129"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="130"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="128"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="131"/>
-      <c r="C109" s="129"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="129"/>
-      <c r="G109" s="129"/>
-      <c r="H109" s="132"/>
-      <c r="I109" s="129"/>
-      <c r="J109" s="129"/>
-      <c r="K109" s="130"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="127"/>
+      <c r="F109" s="127"/>
+      <c r="G109" s="127"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="127"/>
+      <c r="J109" s="127"/>
+      <c r="K109" s="128"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="131"/>
-      <c r="C110" s="129"/>
-      <c r="D110" s="129"/>
-      <c r="E110" s="129"/>
-      <c r="F110" s="129"/>
-      <c r="G110" s="129"/>
-      <c r="H110" s="132"/>
-      <c r="I110" s="129"/>
-      <c r="J110" s="129"/>
-      <c r="K110" s="130"/>
+      <c r="B110" s="129"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="130"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="128"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="131"/>
-      <c r="C111" s="129"/>
-      <c r="D111" s="129"/>
-      <c r="E111" s="129"/>
-      <c r="F111" s="129"/>
-      <c r="G111" s="129"/>
-      <c r="H111" s="132"/>
-      <c r="I111" s="129"/>
-      <c r="J111" s="129"/>
-      <c r="K111" s="130"/>
+      <c r="B111" s="129"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
+      <c r="F111" s="127"/>
+      <c r="G111" s="127"/>
+      <c r="H111" s="130"/>
+      <c r="I111" s="127"/>
+      <c r="J111" s="127"/>
+      <c r="K111" s="128"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="131"/>
-      <c r="C112" s="129"/>
-      <c r="D112" s="129"/>
-      <c r="E112" s="129"/>
-      <c r="F112" s="129"/>
-      <c r="G112" s="129"/>
-      <c r="H112" s="132"/>
-      <c r="I112" s="129"/>
-      <c r="J112" s="129"/>
-      <c r="K112" s="130"/>
+      <c r="B112" s="129"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="130"/>
+      <c r="I112" s="127"/>
+      <c r="J112" s="127"/>
+      <c r="K112" s="128"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="131"/>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="129"/>
-      <c r="G113" s="129"/>
-      <c r="H113" s="132"/>
-      <c r="I113" s="129"/>
-      <c r="J113" s="129"/>
-      <c r="K113" s="130"/>
+      <c r="B113" s="129"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="130"/>
+      <c r="I113" s="127"/>
+      <c r="J113" s="127"/>
+      <c r="K113" s="128"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="131"/>
-      <c r="C114" s="129"/>
-      <c r="D114" s="129"/>
-      <c r="E114" s="129"/>
-      <c r="F114" s="129"/>
-      <c r="G114" s="129"/>
-      <c r="H114" s="132"/>
-      <c r="I114" s="129"/>
-      <c r="J114" s="129"/>
-      <c r="K114" s="130"/>
+      <c r="B114" s="129"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
+      <c r="K114" s="128"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="131"/>
-      <c r="C115" s="129"/>
-      <c r="D115" s="129"/>
-      <c r="E115" s="129"/>
-      <c r="F115" s="129"/>
-      <c r="G115" s="129"/>
-      <c r="H115" s="132"/>
-      <c r="I115" s="129"/>
-      <c r="J115" s="129"/>
-      <c r="K115" s="130"/>
+      <c r="B115" s="129"/>
+      <c r="C115" s="127"/>
+      <c r="D115" s="127"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="127"/>
+      <c r="G115" s="127"/>
+      <c r="H115" s="130"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="127"/>
+      <c r="K115" s="128"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="131"/>
-      <c r="C116" s="129"/>
-      <c r="D116" s="129"/>
-      <c r="E116" s="129"/>
-      <c r="F116" s="129"/>
-      <c r="G116" s="129"/>
-      <c r="H116" s="132"/>
-      <c r="I116" s="129"/>
-      <c r="J116" s="129"/>
-      <c r="K116" s="130"/>
+      <c r="B116" s="129"/>
+      <c r="C116" s="127"/>
+      <c r="D116" s="127"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="127"/>
+      <c r="G116" s="127"/>
+      <c r="H116" s="130"/>
+      <c r="I116" s="127"/>
+      <c r="J116" s="127"/>
+      <c r="K116" s="128"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="131"/>
-      <c r="C117" s="129"/>
-      <c r="D117" s="129"/>
-      <c r="E117" s="129"/>
-      <c r="F117" s="129"/>
-      <c r="G117" s="129"/>
-      <c r="H117" s="132"/>
-      <c r="I117" s="129"/>
-      <c r="J117" s="129"/>
-      <c r="K117" s="130"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="127"/>
+      <c r="D117" s="127"/>
+      <c r="E117" s="127"/>
+      <c r="F117" s="127"/>
+      <c r="G117" s="127"/>
+      <c r="H117" s="130"/>
+      <c r="I117" s="127"/>
+      <c r="J117" s="127"/>
+      <c r="K117" s="128"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="131"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="129"/>
-      <c r="G118" s="129"/>
-      <c r="H118" s="132"/>
-      <c r="I118" s="129"/>
-      <c r="J118" s="129"/>
-      <c r="K118" s="130"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="127"/>
+      <c r="D118" s="127"/>
+      <c r="E118" s="127"/>
+      <c r="F118" s="127"/>
+      <c r="G118" s="127"/>
+      <c r="H118" s="130"/>
+      <c r="I118" s="127"/>
+      <c r="J118" s="127"/>
+      <c r="K118" s="128"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="131"/>
-      <c r="C119" s="129"/>
-      <c r="D119" s="129"/>
-      <c r="E119" s="129"/>
-      <c r="F119" s="129"/>
-      <c r="G119" s="129"/>
-      <c r="H119" s="132"/>
-      <c r="I119" s="129"/>
-      <c r="J119" s="129"/>
-      <c r="K119" s="130"/>
+      <c r="B119" s="129"/>
+      <c r="C119" s="127"/>
+      <c r="D119" s="127"/>
+      <c r="E119" s="127"/>
+      <c r="F119" s="127"/>
+      <c r="G119" s="127"/>
+      <c r="H119" s="130"/>
+      <c r="I119" s="127"/>
+      <c r="J119" s="127"/>
+      <c r="K119" s="128"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="131"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
-      <c r="F120" s="129"/>
-      <c r="G120" s="129"/>
-      <c r="H120" s="132"/>
-      <c r="I120" s="129"/>
-      <c r="J120" s="129"/>
-      <c r="K120" s="130"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="127"/>
+      <c r="D120" s="127"/>
+      <c r="E120" s="127"/>
+      <c r="F120" s="127"/>
+      <c r="G120" s="127"/>
+      <c r="H120" s="130"/>
+      <c r="I120" s="127"/>
+      <c r="J120" s="127"/>
+      <c r="K120" s="128"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="131"/>
-      <c r="C121" s="129"/>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
-      <c r="F121" s="129"/>
-      <c r="G121" s="129"/>
-      <c r="H121" s="132"/>
-      <c r="I121" s="129"/>
-      <c r="J121" s="129"/>
-      <c r="K121" s="130"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="127"/>
+      <c r="D121" s="127"/>
+      <c r="E121" s="127"/>
+      <c r="F121" s="127"/>
+      <c r="G121" s="127"/>
+      <c r="H121" s="130"/>
+      <c r="I121" s="127"/>
+      <c r="J121" s="127"/>
+      <c r="K121" s="128"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="131"/>
-      <c r="C122" s="129"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
-      <c r="F122" s="129"/>
-      <c r="G122" s="129"/>
-      <c r="H122" s="132"/>
-      <c r="I122" s="129"/>
-      <c r="J122" s="129"/>
-      <c r="K122" s="130"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="127"/>
+      <c r="D122" s="127"/>
+      <c r="E122" s="127"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="127"/>
+      <c r="H122" s="130"/>
+      <c r="I122" s="127"/>
+      <c r="J122" s="127"/>
+      <c r="K122" s="128"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="131"/>
-      <c r="C123" s="129"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
-      <c r="F123" s="129"/>
-      <c r="G123" s="129"/>
-      <c r="H123" s="132"/>
-      <c r="I123" s="129"/>
-      <c r="J123" s="129"/>
-      <c r="K123" s="130"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="127"/>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="127"/>
+      <c r="H123" s="130"/>
+      <c r="I123" s="127"/>
+      <c r="J123" s="127"/>
+      <c r="K123" s="128"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="131"/>
-      <c r="C124" s="129"/>
-      <c r="D124" s="129"/>
-      <c r="E124" s="129"/>
-      <c r="F124" s="129"/>
-      <c r="G124" s="129"/>
-      <c r="H124" s="132"/>
-      <c r="I124" s="129"/>
-      <c r="J124" s="129"/>
-      <c r="K124" s="130"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="127"/>
+      <c r="G124" s="127"/>
+      <c r="H124" s="130"/>
+      <c r="I124" s="127"/>
+      <c r="J124" s="127"/>
+      <c r="K124" s="128"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="131"/>
-      <c r="C125" s="129"/>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
-      <c r="F125" s="129"/>
-      <c r="G125" s="129"/>
-      <c r="H125" s="132"/>
-      <c r="I125" s="129"/>
-      <c r="J125" s="129"/>
-      <c r="K125" s="130"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="127"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="127"/>
+      <c r="G125" s="127"/>
+      <c r="H125" s="130"/>
+      <c r="I125" s="127"/>
+      <c r="J125" s="127"/>
+      <c r="K125" s="128"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="131"/>
-      <c r="C126" s="129"/>
-      <c r="D126" s="129"/>
-      <c r="E126" s="129"/>
-      <c r="F126" s="129"/>
-      <c r="G126" s="129"/>
-      <c r="H126" s="132"/>
-      <c r="I126" s="129"/>
-      <c r="J126" s="129"/>
-      <c r="K126" s="130"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="127"/>
+      <c r="D126" s="127"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="127"/>
+      <c r="G126" s="127"/>
+      <c r="H126" s="130"/>
+      <c r="I126" s="127"/>
+      <c r="J126" s="127"/>
+      <c r="K126" s="128"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="131"/>
-      <c r="C127" s="129"/>
-      <c r="D127" s="129"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="129"/>
-      <c r="G127" s="129"/>
-      <c r="H127" s="132"/>
-      <c r="I127" s="129"/>
-      <c r="J127" s="129"/>
-      <c r="K127" s="130"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="127"/>
+      <c r="D127" s="127"/>
+      <c r="E127" s="127"/>
+      <c r="F127" s="127"/>
+      <c r="G127" s="127"/>
+      <c r="H127" s="130"/>
+      <c r="I127" s="127"/>
+      <c r="J127" s="127"/>
+      <c r="K127" s="128"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="131"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="129"/>
-      <c r="F128" s="129"/>
-      <c r="G128" s="129"/>
-      <c r="H128" s="132"/>
-      <c r="I128" s="129"/>
-      <c r="J128" s="129"/>
-      <c r="K128" s="130"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="127"/>
+      <c r="E128" s="127"/>
+      <c r="F128" s="127"/>
+      <c r="G128" s="127"/>
+      <c r="H128" s="130"/>
+      <c r="I128" s="127"/>
+      <c r="J128" s="127"/>
+      <c r="K128" s="128"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="131"/>
-      <c r="C129" s="129"/>
-      <c r="D129" s="129"/>
-      <c r="E129" s="129"/>
-      <c r="F129" s="129"/>
-      <c r="G129" s="129"/>
-      <c r="H129" s="132"/>
-      <c r="I129" s="129"/>
-      <c r="J129" s="129"/>
-      <c r="K129" s="130"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="127"/>
+      <c r="E129" s="127"/>
+      <c r="F129" s="127"/>
+      <c r="G129" s="127"/>
+      <c r="H129" s="130"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="127"/>
+      <c r="K129" s="128"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="131"/>
-      <c r="C130" s="129"/>
-      <c r="D130" s="129"/>
-      <c r="E130" s="129"/>
-      <c r="F130" s="129"/>
-      <c r="G130" s="129"/>
-      <c r="H130" s="132"/>
-      <c r="I130" s="129"/>
-      <c r="J130" s="129"/>
-      <c r="K130" s="130"/>
+      <c r="B130" s="129"/>
+      <c r="C130" s="127"/>
+      <c r="D130" s="127"/>
+      <c r="E130" s="127"/>
+      <c r="F130" s="127"/>
+      <c r="G130" s="127"/>
+      <c r="H130" s="130"/>
+      <c r="I130" s="127"/>
+      <c r="J130" s="127"/>
+      <c r="K130" s="128"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="131"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="129"/>
-      <c r="E131" s="129"/>
-      <c r="F131" s="129"/>
-      <c r="G131" s="129"/>
-      <c r="H131" s="132"/>
-      <c r="I131" s="129"/>
-      <c r="J131" s="129"/>
-      <c r="K131" s="130"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="130"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="127"/>
+      <c r="K131" s="128"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="131"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="129"/>
-      <c r="G132" s="129"/>
-      <c r="H132" s="132"/>
-      <c r="I132" s="129"/>
-      <c r="J132" s="129"/>
-      <c r="K132" s="130"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="127"/>
+      <c r="D132" s="127"/>
+      <c r="E132" s="127"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="127"/>
+      <c r="H132" s="130"/>
+      <c r="I132" s="127"/>
+      <c r="J132" s="127"/>
+      <c r="K132" s="128"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="131"/>
-      <c r="C133" s="129"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="129"/>
-      <c r="F133" s="129"/>
-      <c r="G133" s="129"/>
-      <c r="H133" s="132"/>
-      <c r="I133" s="129"/>
-      <c r="J133" s="129"/>
-      <c r="K133" s="130"/>
+      <c r="B133" s="129"/>
+      <c r="C133" s="127"/>
+      <c r="D133" s="127"/>
+      <c r="E133" s="127"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="127"/>
+      <c r="H133" s="130"/>
+      <c r="I133" s="127"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="128"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="131"/>
-      <c r="C134" s="129"/>
-      <c r="D134" s="129"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="129"/>
-      <c r="G134" s="129"/>
-      <c r="H134" s="132"/>
-      <c r="I134" s="129"/>
-      <c r="J134" s="129"/>
-      <c r="K134" s="130"/>
+      <c r="B134" s="129"/>
+      <c r="C134" s="127"/>
+      <c r="D134" s="127"/>
+      <c r="E134" s="127"/>
+      <c r="F134" s="127"/>
+      <c r="G134" s="127"/>
+      <c r="H134" s="130"/>
+      <c r="I134" s="127"/>
+      <c r="J134" s="127"/>
+      <c r="K134" s="128"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="131"/>
-      <c r="C135" s="129"/>
-      <c r="D135" s="129"/>
-      <c r="E135" s="129"/>
-      <c r="F135" s="129"/>
-      <c r="G135" s="129"/>
-      <c r="H135" s="132"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="130"/>
+      <c r="B135" s="129"/>
+      <c r="C135" s="127"/>
+      <c r="D135" s="127"/>
+      <c r="E135" s="127"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="127"/>
+      <c r="H135" s="130"/>
+      <c r="I135" s="127"/>
+      <c r="J135" s="127"/>
+      <c r="K135" s="128"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="131"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="129"/>
-      <c r="E136" s="129"/>
-      <c r="F136" s="129"/>
-      <c r="G136" s="129"/>
-      <c r="H136" s="132"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="129"/>
-      <c r="K136" s="130"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="127"/>
+      <c r="D136" s="127"/>
+      <c r="E136" s="127"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="127"/>
+      <c r="H136" s="130"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="127"/>
+      <c r="K136" s="128"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="131"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="129"/>
-      <c r="F137" s="129"/>
-      <c r="G137" s="129"/>
-      <c r="H137" s="132"/>
-      <c r="I137" s="129"/>
-      <c r="J137" s="129"/>
-      <c r="K137" s="130"/>
+      <c r="B137" s="129"/>
+      <c r="C137" s="127"/>
+      <c r="D137" s="127"/>
+      <c r="E137" s="127"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="127"/>
+      <c r="H137" s="130"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="127"/>
+      <c r="K137" s="128"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="131"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="129"/>
-      <c r="F138" s="129"/>
-      <c r="G138" s="129"/>
-      <c r="H138" s="132"/>
-      <c r="I138" s="129"/>
-      <c r="J138" s="129"/>
-      <c r="K138" s="130"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="127"/>
+      <c r="D138" s="127"/>
+      <c r="E138" s="127"/>
+      <c r="F138" s="127"/>
+      <c r="G138" s="127"/>
+      <c r="H138" s="130"/>
+      <c r="I138" s="127"/>
+      <c r="J138" s="127"/>
+      <c r="K138" s="128"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="131"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="129"/>
-      <c r="G139" s="129"/>
-      <c r="H139" s="132"/>
-      <c r="I139" s="129"/>
-      <c r="J139" s="129"/>
-      <c r="K139" s="130"/>
+      <c r="B139" s="129"/>
+      <c r="C139" s="127"/>
+      <c r="D139" s="127"/>
+      <c r="E139" s="127"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="127"/>
+      <c r="H139" s="130"/>
+      <c r="I139" s="127"/>
+      <c r="J139" s="127"/>
+      <c r="K139" s="128"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="131"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="129"/>
-      <c r="F140" s="129"/>
-      <c r="G140" s="129"/>
-      <c r="H140" s="132"/>
-      <c r="I140" s="129"/>
-      <c r="J140" s="129"/>
-      <c r="K140" s="130"/>
+      <c r="B140" s="129"/>
+      <c r="C140" s="127"/>
+      <c r="D140" s="127"/>
+      <c r="E140" s="127"/>
+      <c r="F140" s="127"/>
+      <c r="G140" s="127"/>
+      <c r="H140" s="130"/>
+      <c r="I140" s="127"/>
+      <c r="J140" s="127"/>
+      <c r="K140" s="128"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="131"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="129"/>
-      <c r="E141" s="129"/>
-      <c r="F141" s="129"/>
-      <c r="G141" s="129"/>
-      <c r="H141" s="132"/>
-      <c r="I141" s="129"/>
-      <c r="J141" s="129"/>
-      <c r="K141" s="130"/>
+      <c r="B141" s="129"/>
+      <c r="C141" s="127"/>
+      <c r="D141" s="127"/>
+      <c r="E141" s="127"/>
+      <c r="F141" s="127"/>
+      <c r="G141" s="127"/>
+      <c r="H141" s="130"/>
+      <c r="I141" s="127"/>
+      <c r="J141" s="127"/>
+      <c r="K141" s="128"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="131"/>
-      <c r="C142" s="129"/>
-      <c r="D142" s="129"/>
-      <c r="E142" s="129"/>
-      <c r="F142" s="129"/>
-      <c r="G142" s="129"/>
-      <c r="H142" s="132"/>
-      <c r="I142" s="129"/>
-      <c r="J142" s="129"/>
-      <c r="K142" s="130"/>
+      <c r="B142" s="129"/>
+      <c r="C142" s="127"/>
+      <c r="D142" s="127"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="127"/>
+      <c r="G142" s="127"/>
+      <c r="H142" s="130"/>
+      <c r="I142" s="127"/>
+      <c r="J142" s="127"/>
+      <c r="K142" s="128"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="131"/>
-      <c r="C143" s="129"/>
-      <c r="D143" s="129"/>
-      <c r="E143" s="129"/>
-      <c r="F143" s="129"/>
-      <c r="G143" s="129"/>
-      <c r="H143" s="132"/>
-      <c r="I143" s="129"/>
-      <c r="J143" s="129"/>
-      <c r="K143" s="130"/>
+      <c r="B143" s="129"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="127"/>
+      <c r="E143" s="127"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="127"/>
+      <c r="H143" s="130"/>
+      <c r="I143" s="127"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="128"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="131"/>
-      <c r="C144" s="129"/>
-      <c r="D144" s="129"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="129"/>
-      <c r="G144" s="129"/>
-      <c r="H144" s="132"/>
-      <c r="I144" s="129"/>
-      <c r="J144" s="129"/>
-      <c r="K144" s="130"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="130"/>
+      <c r="I144" s="127"/>
+      <c r="J144" s="127"/>
+      <c r="K144" s="128"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="131"/>
-      <c r="C145" s="129"/>
-      <c r="D145" s="129"/>
-      <c r="E145" s="129"/>
-      <c r="F145" s="129"/>
-      <c r="G145" s="129"/>
-      <c r="H145" s="132"/>
-      <c r="I145" s="129"/>
-      <c r="J145" s="129"/>
-      <c r="K145" s="130"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="127"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="127"/>
+      <c r="G145" s="127"/>
+      <c r="H145" s="130"/>
+      <c r="I145" s="127"/>
+      <c r="J145" s="127"/>
+      <c r="K145" s="128"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="131"/>
-      <c r="C146" s="129"/>
-      <c r="D146" s="129"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="129"/>
-      <c r="G146" s="129"/>
-      <c r="H146" s="132"/>
-      <c r="I146" s="129"/>
-      <c r="J146" s="129"/>
-      <c r="K146" s="130"/>
+      <c r="B146" s="129"/>
+      <c r="C146" s="127"/>
+      <c r="D146" s="127"/>
+      <c r="E146" s="127"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="127"/>
+      <c r="H146" s="130"/>
+      <c r="I146" s="127"/>
+      <c r="J146" s="127"/>
+      <c r="K146" s="128"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="131"/>
-      <c r="C147" s="129"/>
-      <c r="D147" s="129"/>
-      <c r="E147" s="129"/>
-      <c r="F147" s="129"/>
-      <c r="G147" s="129"/>
-      <c r="H147" s="132"/>
-      <c r="I147" s="129"/>
-      <c r="J147" s="129"/>
-      <c r="K147" s="130"/>
+      <c r="B147" s="129"/>
+      <c r="C147" s="127"/>
+      <c r="D147" s="127"/>
+      <c r="E147" s="127"/>
+      <c r="F147" s="127"/>
+      <c r="G147" s="127"/>
+      <c r="H147" s="130"/>
+      <c r="I147" s="127"/>
+      <c r="J147" s="127"/>
+      <c r="K147" s="128"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="131"/>
-      <c r="C148" s="129"/>
-      <c r="D148" s="129"/>
-      <c r="E148" s="129"/>
-      <c r="F148" s="129"/>
-      <c r="G148" s="129"/>
-      <c r="H148" s="132"/>
-      <c r="I148" s="129"/>
-      <c r="J148" s="129"/>
-      <c r="K148" s="130"/>
+      <c r="B148" s="129"/>
+      <c r="C148" s="127"/>
+      <c r="D148" s="127"/>
+      <c r="E148" s="127"/>
+      <c r="F148" s="127"/>
+      <c r="G148" s="127"/>
+      <c r="H148" s="130"/>
+      <c r="I148" s="127"/>
+      <c r="J148" s="127"/>
+      <c r="K148" s="128"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="131"/>
-      <c r="C149" s="129"/>
-      <c r="D149" s="129"/>
-      <c r="E149" s="129"/>
-      <c r="F149" s="129"/>
-      <c r="G149" s="129"/>
-      <c r="H149" s="132"/>
-      <c r="I149" s="129"/>
-      <c r="J149" s="129"/>
-      <c r="K149" s="130"/>
+      <c r="B149" s="129"/>
+      <c r="C149" s="127"/>
+      <c r="D149" s="127"/>
+      <c r="E149" s="127"/>
+      <c r="F149" s="127"/>
+      <c r="G149" s="127"/>
+      <c r="H149" s="130"/>
+      <c r="I149" s="127"/>
+      <c r="J149" s="127"/>
+      <c r="K149" s="128"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="131"/>
-      <c r="C150" s="129"/>
-      <c r="D150" s="129"/>
-      <c r="E150" s="129"/>
-      <c r="F150" s="129"/>
-      <c r="G150" s="129"/>
-      <c r="H150" s="132"/>
-      <c r="I150" s="129"/>
-      <c r="J150" s="129"/>
-      <c r="K150" s="130"/>
+      <c r="B150" s="129"/>
+      <c r="C150" s="127"/>
+      <c r="D150" s="127"/>
+      <c r="E150" s="127"/>
+      <c r="F150" s="127"/>
+      <c r="G150" s="127"/>
+      <c r="H150" s="130"/>
+      <c r="I150" s="127"/>
+      <c r="J150" s="127"/>
+      <c r="K150" s="128"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="131"/>
-      <c r="C151" s="129"/>
-      <c r="D151" s="129"/>
-      <c r="E151" s="129"/>
-      <c r="F151" s="129"/>
-      <c r="G151" s="129"/>
-      <c r="H151" s="132"/>
-      <c r="I151" s="129"/>
-      <c r="J151" s="129"/>
-      <c r="K151" s="130"/>
+      <c r="B151" s="129"/>
+      <c r="C151" s="127"/>
+      <c r="D151" s="127"/>
+      <c r="E151" s="127"/>
+      <c r="F151" s="127"/>
+      <c r="G151" s="127"/>
+      <c r="H151" s="130"/>
+      <c r="I151" s="127"/>
+      <c r="J151" s="127"/>
+      <c r="K151" s="128"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="131"/>
-      <c r="C152" s="129"/>
-      <c r="D152" s="129"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="129"/>
-      <c r="G152" s="129"/>
-      <c r="H152" s="132"/>
-      <c r="I152" s="129"/>
-      <c r="J152" s="129"/>
-      <c r="K152" s="130"/>
+      <c r="B152" s="129"/>
+      <c r="C152" s="127"/>
+      <c r="D152" s="127"/>
+      <c r="E152" s="127"/>
+      <c r="F152" s="127"/>
+      <c r="G152" s="127"/>
+      <c r="H152" s="130"/>
+      <c r="I152" s="127"/>
+      <c r="J152" s="127"/>
+      <c r="K152" s="128"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="131"/>
-      <c r="C153" s="129"/>
-      <c r="D153" s="129"/>
-      <c r="E153" s="129"/>
-      <c r="F153" s="129"/>
-      <c r="G153" s="129"/>
-      <c r="H153" s="132"/>
-      <c r="I153" s="129"/>
-      <c r="J153" s="129"/>
-      <c r="K153" s="130"/>
+      <c r="B153" s="129"/>
+      <c r="C153" s="127"/>
+      <c r="D153" s="127"/>
+      <c r="E153" s="127"/>
+      <c r="F153" s="127"/>
+      <c r="G153" s="127"/>
+      <c r="H153" s="130"/>
+      <c r="I153" s="127"/>
+      <c r="J153" s="127"/>
+      <c r="K153" s="128"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="131"/>
-      <c r="C154" s="129"/>
-      <c r="D154" s="129"/>
-      <c r="E154" s="129"/>
-      <c r="F154" s="129"/>
-      <c r="G154" s="129"/>
-      <c r="H154" s="132"/>
-      <c r="I154" s="129"/>
-      <c r="J154" s="129"/>
-      <c r="K154" s="130"/>
+      <c r="B154" s="129"/>
+      <c r="C154" s="127"/>
+      <c r="D154" s="127"/>
+      <c r="E154" s="127"/>
+      <c r="F154" s="127"/>
+      <c r="G154" s="127"/>
+      <c r="H154" s="130"/>
+      <c r="I154" s="127"/>
+      <c r="J154" s="127"/>
+      <c r="K154" s="128"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="131"/>
-      <c r="C155" s="129"/>
-      <c r="D155" s="129"/>
-      <c r="E155" s="129"/>
-      <c r="F155" s="129"/>
-      <c r="G155" s="129"/>
-      <c r="H155" s="132"/>
-      <c r="I155" s="129"/>
-      <c r="J155" s="129"/>
-      <c r="K155" s="130"/>
+      <c r="B155" s="129"/>
+      <c r="C155" s="127"/>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="127"/>
+      <c r="H155" s="130"/>
+      <c r="I155" s="127"/>
+      <c r="J155" s="127"/>
+      <c r="K155" s="128"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="131"/>
-      <c r="C156" s="129"/>
-      <c r="D156" s="129"/>
-      <c r="E156" s="129"/>
-      <c r="F156" s="129"/>
-      <c r="G156" s="129"/>
-      <c r="H156" s="132"/>
-      <c r="I156" s="129"/>
-      <c r="J156" s="129"/>
-      <c r="K156" s="130"/>
+      <c r="B156" s="129"/>
+      <c r="C156" s="127"/>
+      <c r="D156" s="127"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="127"/>
+      <c r="G156" s="127"/>
+      <c r="H156" s="130"/>
+      <c r="I156" s="127"/>
+      <c r="J156" s="127"/>
+      <c r="K156" s="128"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="131"/>
-      <c r="C157" s="129"/>
-      <c r="D157" s="129"/>
-      <c r="E157" s="129"/>
-      <c r="F157" s="129"/>
-      <c r="G157" s="129"/>
-      <c r="H157" s="132"/>
-      <c r="I157" s="129"/>
-      <c r="J157" s="129"/>
-      <c r="K157" s="130"/>
+      <c r="B157" s="129"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="130"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="128"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="131"/>
-      <c r="C158" s="129"/>
-      <c r="D158" s="129"/>
-      <c r="E158" s="129"/>
-      <c r="F158" s="129"/>
-      <c r="G158" s="129"/>
-      <c r="H158" s="132"/>
-      <c r="I158" s="129"/>
-      <c r="J158" s="129"/>
-      <c r="K158" s="130"/>
+      <c r="B158" s="129"/>
+      <c r="C158" s="127"/>
+      <c r="D158" s="127"/>
+      <c r="E158" s="127"/>
+      <c r="F158" s="127"/>
+      <c r="G158" s="127"/>
+      <c r="H158" s="130"/>
+      <c r="I158" s="127"/>
+      <c r="J158" s="127"/>
+      <c r="K158" s="128"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="131"/>
-      <c r="C159" s="129"/>
-      <c r="D159" s="129"/>
-      <c r="E159" s="129"/>
-      <c r="F159" s="129"/>
-      <c r="G159" s="129"/>
-      <c r="H159" s="132"/>
-      <c r="I159" s="129"/>
-      <c r="J159" s="129"/>
-      <c r="K159" s="130"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="127"/>
+      <c r="D159" s="127"/>
+      <c r="E159" s="127"/>
+      <c r="F159" s="127"/>
+      <c r="G159" s="127"/>
+      <c r="H159" s="130"/>
+      <c r="I159" s="127"/>
+      <c r="J159" s="127"/>
+      <c r="K159" s="128"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="131"/>
-      <c r="C160" s="129"/>
-      <c r="D160" s="129"/>
-      <c r="E160" s="129"/>
-      <c r="F160" s="129"/>
-      <c r="G160" s="129"/>
-      <c r="H160" s="132"/>
-      <c r="I160" s="129"/>
-      <c r="J160" s="129"/>
-      <c r="K160" s="130"/>
+      <c r="B160" s="129"/>
+      <c r="C160" s="127"/>
+      <c r="D160" s="127"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="127"/>
+      <c r="G160" s="127"/>
+      <c r="H160" s="130"/>
+      <c r="I160" s="127"/>
+      <c r="J160" s="127"/>
+      <c r="K160" s="128"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="131"/>
-      <c r="C161" s="129"/>
-      <c r="D161" s="129"/>
-      <c r="E161" s="129"/>
-      <c r="F161" s="129"/>
-      <c r="G161" s="129"/>
-      <c r="H161" s="132"/>
-      <c r="I161" s="129"/>
-      <c r="J161" s="129"/>
-      <c r="K161" s="130"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="127"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="127"/>
+      <c r="G161" s="127"/>
+      <c r="H161" s="130"/>
+      <c r="I161" s="127"/>
+      <c r="J161" s="127"/>
+      <c r="K161" s="128"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="131"/>
-      <c r="C162" s="129"/>
-      <c r="D162" s="129"/>
-      <c r="E162" s="129"/>
-      <c r="F162" s="129"/>
-      <c r="G162" s="129"/>
-      <c r="H162" s="132"/>
-      <c r="I162" s="129"/>
-      <c r="J162" s="129"/>
-      <c r="K162" s="130"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="127"/>
+      <c r="D162" s="127"/>
+      <c r="E162" s="127"/>
+      <c r="F162" s="127"/>
+      <c r="G162" s="127"/>
+      <c r="H162" s="130"/>
+      <c r="I162" s="127"/>
+      <c r="J162" s="127"/>
+      <c r="K162" s="128"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="131"/>
-      <c r="C163" s="129"/>
-      <c r="D163" s="129"/>
-      <c r="E163" s="129"/>
-      <c r="F163" s="129"/>
-      <c r="G163" s="129"/>
-      <c r="H163" s="132"/>
-      <c r="I163" s="129"/>
-      <c r="J163" s="129"/>
-      <c r="K163" s="130"/>
+      <c r="B163" s="129"/>
+      <c r="C163" s="127"/>
+      <c r="D163" s="127"/>
+      <c r="E163" s="127"/>
+      <c r="F163" s="127"/>
+      <c r="G163" s="127"/>
+      <c r="H163" s="130"/>
+      <c r="I163" s="127"/>
+      <c r="J163" s="127"/>
+      <c r="K163" s="128"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="131"/>
-      <c r="C164" s="129"/>
-      <c r="D164" s="129"/>
-      <c r="E164" s="129"/>
-      <c r="F164" s="129"/>
-      <c r="G164" s="129"/>
-      <c r="H164" s="132"/>
-      <c r="I164" s="129"/>
-      <c r="J164" s="129"/>
-      <c r="K164" s="130"/>
+      <c r="B164" s="129"/>
+      <c r="C164" s="127"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="130"/>
+      <c r="I164" s="127"/>
+      <c r="J164" s="127"/>
+      <c r="K164" s="128"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="131"/>
-      <c r="C165" s="129"/>
-      <c r="D165" s="129"/>
-      <c r="E165" s="129"/>
-      <c r="F165" s="129"/>
-      <c r="G165" s="129"/>
-      <c r="H165" s="132"/>
-      <c r="I165" s="129"/>
-      <c r="J165" s="129"/>
-      <c r="K165" s="130"/>
+      <c r="B165" s="129"/>
+      <c r="C165" s="127"/>
+      <c r="D165" s="127"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="127"/>
+      <c r="G165" s="127"/>
+      <c r="H165" s="130"/>
+      <c r="I165" s="127"/>
+      <c r="J165" s="127"/>
+      <c r="K165" s="128"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="131"/>
-      <c r="C166" s="129"/>
-      <c r="D166" s="129"/>
-      <c r="E166" s="129"/>
-      <c r="F166" s="129"/>
-      <c r="G166" s="129"/>
-      <c r="H166" s="132"/>
-      <c r="I166" s="129"/>
-      <c r="J166" s="129"/>
-      <c r="K166" s="130"/>
+      <c r="B166" s="129"/>
+      <c r="C166" s="127"/>
+      <c r="D166" s="127"/>
+      <c r="E166" s="127"/>
+      <c r="F166" s="127"/>
+      <c r="G166" s="127"/>
+      <c r="H166" s="130"/>
+      <c r="I166" s="127"/>
+      <c r="J166" s="127"/>
+      <c r="K166" s="128"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K25" r:id="rId1" location=":~:text=Lead%2D%20and%20lithium%2Dbased%20systems,have%20a%20lower%20self%2Ddischarge.&amp;text=Li%2Dion%20self%2Ddischarges%20about,another%203%20percent%20per%20month." xr:uid="{031176E8-0877-E64C-87B9-E9CBBB4A79D4}"/>
+    <hyperlink ref="K29" r:id="rId2" xr:uid="{DEFCEEBE-F575-7647-8315-8E157DC4B560}"/>
+    <hyperlink ref="K30" r:id="rId3" xr:uid="{3C9C05A1-A1C1-194E-B057-FB992DACA991}"/>
+    <hyperlink ref="K16" r:id="rId4" xr:uid="{4ADB1A1D-46E9-0444-9550-C3ECDCD4D968}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{13F25113-9235-304C-9B32-267D5ACC1054}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{4D8AC08F-2B04-D04A-BDEF-0683C6CAB426}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/households/households_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/households/households_flexibility_p2p_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F511B65-2E62-3B42-85EB-2FE86C37CAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996EABC-33E4-6849-A95A-0D3E570A256D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1000" windowWidth="28800" windowHeight="15940" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="27660" windowHeight="15940" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>households_supplied_per_unit</t>
-  </si>
-  <si>
     <t>yes=1, no=0</t>
   </si>
   <si>
@@ -134,25 +131,13 @@
     <t>availability</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
     <t>land_use_per_unit</t>
   </si>
   <si>
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
   </si>
   <si>
     <t>initial_investment</t>
@@ -539,6 +524,15 @@
   <si>
     <t>https://refman.energytransitionmodel.com/publications/2135</t>
   </si>
+  <si>
+    <t>marginal_costs</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
 </sst>
 </file>
 
@@ -550,12 +544,19 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1051,612 +1052,606 @@
   </borders>
   <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="274" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="274" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="275">
@@ -2606,7 +2601,7 @@
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="20"/>
     </row>
@@ -2618,28 +2613,28 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2655,7 +2650,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="71"/>
@@ -2669,10 +2664,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="72"/>
     </row>
@@ -2680,7 +2675,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="54"/>
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="72"/>
     </row>
@@ -2688,7 +2683,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="54"/>
       <c r="C13" s="57" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13" s="72"/>
     </row>
@@ -2696,7 +2691,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="54"/>
       <c r="C14" s="55" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D14" s="72"/>
     </row>
@@ -2709,10 +2704,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" s="72"/>
     </row>
@@ -2720,7 +2715,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="54"/>
       <c r="C17" s="59" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D17" s="72"/>
     </row>
@@ -2728,7 +2723,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="54"/>
       <c r="C18" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" s="72"/>
     </row>
@@ -2736,7 +2731,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="54"/>
       <c r="C19" s="61" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D19" s="72"/>
     </row>
@@ -2744,7 +2739,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="62"/>
       <c r="C20" s="63" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="72"/>
     </row>
@@ -2752,7 +2747,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21" s="72"/>
     </row>
@@ -2760,14 +2755,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="62"/>
       <c r="C22" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D22" s="72"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="62"/>
       <c r="C23" s="66" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D23" s="72"/>
     </row>
@@ -2787,10 +2782,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K38"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2815,28 +2810,28 @@
       <c r="G1" s="84"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150"/>
+      <c r="B2" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
     </row>
@@ -2857,17 +2852,17 @@
     <row r="7" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="88"/>
       <c r="C7" s="89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="89" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="89"/>
       <c r="I7" s="89" t="s">
@@ -2889,7 +2884,7 @@
     <row r="9" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="93"/>
       <c r="C9" s="94" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="94"/>
@@ -2902,47 +2897,47 @@
     <row r="10" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="93"/>
       <c r="C10" s="106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="137">
+        <v>74</v>
+      </c>
+      <c r="E10" s="135">
         <f>'Research data'!G6</f>
         <v>9.7200000000000012E-3</v>
       </c>
       <c r="F10" s="108"/>
-      <c r="G10" s="175"/>
-      <c r="I10" s="174" t="s">
-        <v>133</v>
+      <c r="G10" s="164"/>
+      <c r="I10" s="163" t="s">
+        <v>128</v>
       </c>
       <c r="J10" s="96"/>
     </row>
     <row r="11" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="93"/>
       <c r="C11" s="106" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="147">
+        <v>81</v>
+      </c>
+      <c r="E11" s="145">
         <f>'Research data'!G7</f>
         <v>2.5720164609053498E-3</v>
       </c>
       <c r="F11" s="108"/>
-      <c r="G11" s="175" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="174" t="s">
-        <v>133</v>
+      <c r="G11" s="164" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="163" t="s">
+        <v>128</v>
       </c>
       <c r="J11" s="96"/>
     </row>
     <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="93"/>
-      <c r="C12" s="141" t="s">
-        <v>83</v>
+      <c r="C12" s="139" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="109" t="s">
         <v>4</v>
@@ -2952,56 +2947,56 @@
         <v>0.9</v>
       </c>
       <c r="F12" s="108"/>
-      <c r="G12" s="175" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="174" t="s">
-        <v>134</v>
+      <c r="G12" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="163" t="s">
+        <v>129</v>
       </c>
       <c r="J12" s="96"/>
     </row>
     <row r="13" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="93"/>
       <c r="C13" s="106" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="137">
+        <v>37</v>
+      </c>
+      <c r="E13" s="135">
         <f>'Research data'!G9</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="108"/>
-      <c r="G13" s="175"/>
-      <c r="I13" s="174" t="s">
-        <v>133</v>
+      <c r="G13" s="164"/>
+      <c r="I13" s="163" t="s">
+        <v>128</v>
       </c>
       <c r="J13" s="96"/>
     </row>
     <row r="14" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B14" s="93"/>
-      <c r="C14" s="175" t="s">
-        <v>147</v>
+      <c r="C14" s="164" t="s">
+        <v>142</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="137">
+        <v>37</v>
+      </c>
+      <c r="E14" s="135">
         <f>'Research data'!G8</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="108"/>
-      <c r="G14" s="175"/>
-      <c r="I14" s="174" t="s">
-        <v>133</v>
+      <c r="G14" s="164"/>
+      <c r="I14" s="163" t="s">
+        <v>128</v>
       </c>
       <c r="J14" s="96"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="97"/>
       <c r="C15" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="109" t="s">
         <v>4</v>
@@ -3010,17 +3005,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="108"/>
-      <c r="G15" s="175"/>
-      <c r="I15" s="138" t="s">
-        <v>82</v>
+      <c r="G15" s="164"/>
+      <c r="I15" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J15" s="98"/>
       <c r="K15" s="84"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="97"/>
-      <c r="C16" s="108" t="s">
-        <v>24</v>
+      <c r="C16" s="111" t="s">
+        <v>60</v>
       </c>
       <c r="D16" s="109" t="s">
         <v>4</v>
@@ -3029,378 +3024,321 @@
         <v>0</v>
       </c>
       <c r="F16" s="108"/>
-      <c r="G16" s="175"/>
-      <c r="I16" s="138" t="s">
-        <v>82</v>
+      <c r="G16" s="164"/>
+      <c r="I16" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="84"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:10" ht="16" customHeight="1">
       <c r="B17" s="97"/>
-      <c r="C17" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="110">
-        <v>0</v>
-      </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="175"/>
-      <c r="I17" s="138" t="s">
-        <v>82</v>
-      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="98"/>
-      <c r="K17" s="84"/>
-    </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="18" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="97"/>
-      <c r="C18" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="110">
-        <v>0</v>
-      </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="175"/>
-      <c r="I18" s="138" t="s">
-        <v>82</v>
-      </c>
+      <c r="C18" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="98"/>
-      <c r="K18" s="84"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="19" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="97"/>
       <c r="C19" s="108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="112">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="110">
+        <f>'Research data'!G13</f>
+        <v>11373.6</v>
       </c>
       <c r="F19" s="108"/>
-      <c r="G19" s="175"/>
-      <c r="I19" s="138" t="s">
-        <v>82</v>
+      <c r="G19" s="108"/>
+      <c r="I19" s="163" t="s">
+        <v>106</v>
       </c>
       <c r="J19" s="98"/>
-      <c r="K19" s="84"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="20" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="97"/>
       <c r="C20" s="108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="112">
+        <v>21</v>
+      </c>
+      <c r="E20" s="110">
         <v>0</v>
       </c>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
-      <c r="I20" s="138" t="s">
-        <v>82</v>
+      <c r="I20" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J20" s="98"/>
-      <c r="K20" s="84"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="21" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="97"/>
       <c r="C21" s="108" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="113">
+        <v>21</v>
+      </c>
+      <c r="E21" s="110">
         <v>0</v>
       </c>
       <c r="F21" s="108"/>
       <c r="G21" s="108"/>
-      <c r="I21" s="138" t="s">
-        <v>82</v>
+      <c r="I21" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1">
+    <row r="22" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B22" s="97"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="I22" s="84"/>
+      <c r="C22" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="110">
+        <v>0</v>
+      </c>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="I22" s="136" t="s">
+        <v>77</v>
+      </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="97"/>
-      <c r="C23" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="C23" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="112">
+        <v>0</v>
+      </c>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="I23" s="136" t="s">
+        <v>77</v>
+      </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="24" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="97"/>
       <c r="C24" s="108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="110">
-        <f>'Research data'!G13</f>
-        <v>11373.6</v>
+        <v>35</v>
+      </c>
+      <c r="E24" s="107">
+        <v>0</v>
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
-      <c r="I24" s="174" t="s">
-        <v>111</v>
+      <c r="I24" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="97"/>
       <c r="C25" s="108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="110">
+        <v>35</v>
+      </c>
+      <c r="E25" s="113">
         <v>0</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
-      <c r="I25" s="138" t="s">
-        <v>82</v>
+      <c r="I25" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="26" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="97"/>
       <c r="C26" s="108" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="110">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="107">
+        <v>0.02</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="108"/>
-      <c r="I26" s="138" t="s">
-        <v>82</v>
+      <c r="I26" s="143" t="s">
+        <v>80</v>
       </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="97"/>
       <c r="C27" s="108" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E27" s="110">
         <v>0</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="108"/>
-      <c r="I27" s="138" t="s">
-        <v>82</v>
+      <c r="I27" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="97"/>
       <c r="C28" s="108" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="114">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="E28" s="110">
+        <v>4</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
-      <c r="I28" s="138" t="s">
-        <v>82</v>
+      <c r="I28" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="97"/>
       <c r="C29" s="108" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="107">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="E29" s="110">
+        <f>E28/E12</f>
+        <v>4.4444444444444446</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
-      <c r="I29" s="138" t="s">
-        <v>82</v>
+      <c r="I29" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:10" ht="16" customHeight="1">
       <c r="B30" s="97"/>
-      <c r="C30" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="115">
-        <v>0</v>
-      </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="I30" s="138" t="s">
-        <v>82</v>
-      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="I30" s="84"/>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="97"/>
-      <c r="C31" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="107">
-        <v>0.02</v>
-      </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="I31" s="145" t="s">
-        <v>85</v>
-      </c>
+      <c r="C31" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="100"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="97"/>
       <c r="C32" s="108" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" s="110">
         <v>0</v>
       </c>
       <c r="F32" s="108"/>
       <c r="G32" s="108"/>
-      <c r="I32" s="138" t="s">
-        <v>82</v>
+      <c r="I32" s="137" t="s">
+        <v>77</v>
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B33" s="97"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="C33" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="112">
+        <v>0</v>
+      </c>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="I33" s="137" t="s">
+        <v>77</v>
+      </c>
       <c r="J33" s="98"/>
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="97"/>
-      <c r="C34" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="I34" s="84"/>
+      <c r="C34" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="110">
+        <v>10</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="I34" s="137" t="s">
+        <v>77</v>
+      </c>
       <c r="J34" s="98"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="110">
-        <v>0</v>
-      </c>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="I35" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="98"/>
-    </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="114">
-        <v>0</v>
-      </c>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="I36" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="98"/>
-    </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="110">
-        <v>10</v>
-      </c>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="I37" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="98"/>
-    </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="105"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3455,21 +3393,21 @@
     <row r="3" spans="2:12" s="16" customFormat="1">
       <c r="B3" s="15"/>
       <c r="C3" s="68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
       <c r="J3" s="36"/>
       <c r="K3" s="68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L3" s="77"/>
     </row>
@@ -3489,7 +3427,7 @@
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="43"/>
       <c r="C5" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -3503,57 +3441,57 @@
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="43"/>
-      <c r="C6" s="134" t="s">
-        <v>75</v>
+      <c r="C6" s="132" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="172">
+      <c r="F6" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="161">
         <f>Notes!E19/1000</f>
         <v>9.7200000000000012E-3</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="45"/>
-      <c r="K6" s="169" t="s">
-        <v>143</v>
+      <c r="K6" s="158" t="s">
+        <v>138</v>
       </c>
       <c r="L6" s="78"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="134" t="s">
-        <v>78</v>
+      <c r="C7" s="132" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="176" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="172">
+      <c r="F7" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="161">
         <f>Notes!E23/100</f>
         <v>2.5720164609053498E-3</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="169" t="s">
-        <v>144</v>
+      <c r="K7" s="158" t="s">
+        <v>139</v>
       </c>
       <c r="L7" s="78"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="43"/>
-      <c r="C8" s="134" t="s">
-        <v>80</v>
+      <c r="C8" s="132" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="135" t="s">
-        <v>42</v>
+      <c r="F8" s="133" t="s">
+        <v>37</v>
       </c>
       <c r="G8" s="70">
         <f>Notes!E16/1000</f>
@@ -3562,52 +3500,52 @@
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="169" t="s">
-        <v>145</v>
+      <c r="K8" s="158" t="s">
+        <v>140</v>
       </c>
       <c r="L8" s="78"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="43"/>
-      <c r="C9" s="134" t="s">
-        <v>76</v>
+      <c r="C9" s="132" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="135" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="173">
+      <c r="F9" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="162">
         <f>Notes!E17/1000</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="45"/>
-      <c r="K9" s="169" t="s">
-        <v>140</v>
+      <c r="K9" s="158" t="s">
+        <v>135</v>
       </c>
       <c r="L9" s="78"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="43"/>
-      <c r="C10" s="171" t="s">
-        <v>138</v>
+      <c r="C10" s="160" t="s">
+        <v>133</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="135" t="s">
+      <c r="F10" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="136">
+      <c r="G10" s="134">
         <f>Notes!E31</f>
         <v>0.9</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="169" t="s">
-        <v>146</v>
+      <c r="K10" s="158" t="s">
+        <v>141</v>
       </c>
       <c r="L10" s="78"/>
     </row>
@@ -3621,15 +3559,15 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="162" t="s">
-        <v>141</v>
+      <c r="K11" s="151" t="s">
+        <v>136</v>
       </c>
       <c r="L11" s="78"/>
     </row>
     <row r="12" spans="2:12" ht="17" thickBot="1">
       <c r="B12" s="43"/>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3639,19 +3577,19 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L12" s="78"/>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="43"/>
-      <c r="C13" s="134" t="s">
-        <v>81</v>
+      <c r="C13" s="132" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="134" t="s">
-        <v>73</v>
+      <c r="F13" s="132" t="s">
+        <v>68</v>
       </c>
       <c r="G13" s="51">
         <f>Notes!E14</f>
@@ -3723,7 +3661,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -3749,107 +3687,107 @@
     <row r="5" spans="2:11">
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="C7" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="133">
+        <v>130</v>
+      </c>
+      <c r="G7" s="131">
         <v>44133</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="130">
         <v>2018</v>
       </c>
-      <c r="I7" s="133">
+      <c r="I7" s="131">
         <v>44141</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="170">
+      <c r="G8" s="159">
         <v>43497</v>
       </c>
-      <c r="H8" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="133">
+      <c r="H8" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="131">
         <v>44141</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="170">
+        <v>130</v>
+      </c>
+      <c r="G9" s="159">
         <v>43252</v>
       </c>
-      <c r="H9" s="168">
+      <c r="H9" s="157">
         <v>42675</v>
       </c>
-      <c r="I9" s="133">
+      <c r="I9" s="131">
         <v>44141</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3871,53 +3809,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="116" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="116" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="116" customWidth="1"/>
-    <col min="5" max="5" width="15" style="116" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="116" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="116"/>
-    <col min="8" max="8" width="10.7109375" style="117"/>
-    <col min="9" max="9" width="10.7109375" style="116"/>
-    <col min="10" max="10" width="55.5703125" style="116" customWidth="1"/>
-    <col min="11" max="11" width="80.5703125" style="116" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="116"/>
+    <col min="1" max="1" width="3.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="114" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="114" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="15" style="114" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="114" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="114"/>
+    <col min="8" max="8" width="10.7109375" style="115"/>
+    <col min="9" max="9" width="10.7109375" style="114"/>
+    <col min="10" max="10" width="55.5703125" style="114" customWidth="1"/>
+    <col min="11" max="11" width="80.5703125" style="114" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="114"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="122"/>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="123" t="s">
+      <c r="D4" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="125" t="s">
-        <v>72</v>
+      <c r="F4" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="123" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3927,7 +3865,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="126"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="77"/>
@@ -3935,104 +3873,104 @@
     <row r="6" spans="2:11">
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="161" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="151" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="151" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="150" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="15"/>
-      <c r="C7" s="162"/>
-      <c r="G7" s="162" t="s">
-        <v>122</v>
+      <c r="C7" s="151"/>
+      <c r="G7" s="151" t="s">
+        <v>117</v>
       </c>
       <c r="K7" s="77"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="15"/>
-      <c r="G8" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="160" t="s">
-        <v>124</v>
+      <c r="G8" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="149" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="15"/>
-      <c r="K9" s="160"/>
+      <c r="K9" s="149"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="116">
+        <v>106</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="114">
         <v>13540</v>
       </c>
-      <c r="F10" s="162" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="161" t="s">
-        <v>92</v>
+      <c r="F10" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="150" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="15"/>
-      <c r="G11" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="160" t="s">
-        <v>117</v>
+      <c r="G11" s="151" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="149" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="15"/>
-      <c r="G12" s="162" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="160" t="s">
-        <v>118</v>
+      <c r="G12" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="149" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="15"/>
-      <c r="E13" s="116">
+      <c r="E13" s="114">
         <v>0.84</v>
       </c>
-      <c r="F13" s="162" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="162" t="s">
-        <v>74</v>
+      <c r="F13" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>69</v>
       </c>
       <c r="K13" s="77"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="15"/>
-      <c r="E14" s="157">
+      <c r="E14" s="146">
         <f>E13*E10</f>
         <v>11373.6</v>
       </c>
-      <c r="F14" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="157"/>
+      <c r="F14" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="146"/>
       <c r="K14" s="77"/>
     </row>
     <row r="15" spans="2:11">
@@ -4042,69 +3980,69 @@
     <row r="16" spans="2:11">
       <c r="B16" s="15"/>
       <c r="C16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="157">
+        <v>86</v>
+      </c>
+      <c r="D16" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="146">
         <v>5</v>
       </c>
-      <c r="F16" s="157" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="157" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="126"/>
+      <c r="F16" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="124"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="161" t="s">
-        <v>92</v>
+      <c r="K16" s="150" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="157" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="127">
+      <c r="D17" s="146" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="125">
         <v>5</v>
       </c>
-      <c r="F17" s="157" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="157" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="126"/>
+      <c r="F17" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="124"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="77"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="15"/>
-      <c r="H18" s="126"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="77"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="15"/>
-      <c r="D19" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="116">
+      <c r="D19" s="151" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="114">
         <v>9.7200000000000006</v>
       </c>
-      <c r="F19" s="162" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="162" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="126"/>
+      <c r="F19" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="124"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="77"/>
@@ -4112,10 +4050,10 @@
     <row r="20" spans="2:11">
       <c r="B20" s="15"/>
       <c r="C20" s="13"/>
-      <c r="G20" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="126"/>
+      <c r="G20" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="124"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="77"/>
@@ -4123,27 +4061,27 @@
     <row r="21" spans="2:11">
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
-      <c r="H21" s="126"/>
+      <c r="H21" s="124"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="77"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="129"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="162" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="116">
+      <c r="D22" s="151" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="114">
         <v>25</v>
       </c>
-      <c r="F22" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="157" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="126"/>
+      <c r="F22" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="124"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="77"/>
@@ -4151,17 +4089,17 @@
     <row r="23" spans="2:11">
       <c r="B23" s="15"/>
       <c r="C23" s="13"/>
-      <c r="E23" s="158">
+      <c r="E23" s="147">
         <f>E22/(E19*1000)*100</f>
         <v>0.25720164609053497</v>
       </c>
-      <c r="F23" s="157" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="157" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="126"/>
+      <c r="F23" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="124"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="77"/>
@@ -4169,11 +4107,11 @@
     <row r="24" spans="2:11">
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="126"/>
+      <c r="H24" s="124"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="77"/>
@@ -4182,21 +4120,21 @@
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="163">
+      <c r="E25" s="152">
         <f>E22*24/(E19*1000)*100</f>
         <v>6.1728395061728394</v>
       </c>
-      <c r="F25" s="157" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="157" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="126"/>
+      <c r="F25" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="124"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="161" t="s">
-        <v>99</v>
+      <c r="K25" s="150" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -4206,259 +4144,259 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="126"/>
+      <c r="H26" s="124"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="77"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="15"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="128"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="126"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="157" t="s">
+      <c r="D28" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="146">
+        <v>0.96</v>
+      </c>
+      <c r="F28" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="157">
-        <v>0.96</v>
-      </c>
-      <c r="F28" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="157" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="164"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="144"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="142"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="164"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="161" t="s">
+      <c r="F29" s="146"/>
+      <c r="G29" s="146" t="s">
         <v>102</v>
+      </c>
+      <c r="H29" s="153"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="150" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="15"/>
       <c r="C30" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="157" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="164">
+        <v>105</v>
+      </c>
+      <c r="D30" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="153">
         <f>0.955*0.945</f>
         <v>0.90247499999999992</v>
       </c>
-      <c r="F30" s="157" t="s">
+      <c r="F30" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="157" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="164"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="161" t="s">
-        <v>109</v>
+      <c r="G30" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="153"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="150" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="15"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="164">
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="153">
         <v>0.9</v>
       </c>
-      <c r="F31" s="157" t="s">
+      <c r="F31" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="157" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="164"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="160"/>
+      <c r="G31" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="153"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="149"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="15"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="160"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="149"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="15"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="160"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="149"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="15"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="K34" s="160"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="149"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="15"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="160"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="149"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="15"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="160"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="149"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="15"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="160"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="149"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="15"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="160"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="149"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="15"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="160"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="149"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="15"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="160"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="149"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="15"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="160"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="149"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="15"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="160"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="149"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="15"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="160"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="149"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="15"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="160"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="149"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="15"/>
@@ -4467,7 +4405,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="126"/>
+      <c r="H45" s="124"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="77"/>
@@ -4479,7 +4417,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="126"/>
+      <c r="H46" s="124"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="77"/>
@@ -4491,7 +4429,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="126"/>
+      <c r="H47" s="124"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="77"/>
@@ -4503,7 +4441,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="126"/>
+      <c r="H48" s="124"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="77"/>
@@ -4511,11 +4449,11 @@
     <row r="49" spans="2:11">
       <c r="B49" s="15"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="127"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="125"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="126"/>
+      <c r="H49" s="124"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="77"/>
@@ -4527,1375 +4465,1375 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="126"/>
+      <c r="H50" s="124"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="77"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="129"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="128"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="126"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="129"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="128"/>
+      <c r="B52" s="127"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="129"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="128"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="126"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="129"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="128"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="126"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="129"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="128"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="126"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="129"/>
-      <c r="C56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="128"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="126"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="129"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="128"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="126"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="129"/>
-      <c r="C58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="128"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="126"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="129"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="128"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="126"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="129"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
-      <c r="K60" s="128"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="126"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="129"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="127"/>
-      <c r="K61" s="128"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="125"/>
+      <c r="K61" s="126"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="129"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="127"/>
-      <c r="K62" s="128"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="126"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="129"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="157" t="s">
-        <v>127</v>
-      </c>
-      <c r="K63" s="128"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63" s="126"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="129"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="128"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="126"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="129"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="128"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="126"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="129"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="128"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="126"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="129"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="128"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="126"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="129"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="143"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="128"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="126"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="129"/>
-      <c r="C69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="128"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="126"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="129"/>
-      <c r="C70" s="127"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="128"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="126"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="129"/>
-      <c r="C71" s="127"/>
-      <c r="G71" s="127"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="127"/>
-      <c r="K71" s="128"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="126"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="129"/>
-      <c r="C72" s="127"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="130"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="127"/>
-      <c r="K72" s="128"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="125"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="125"/>
+      <c r="J72" s="125"/>
+      <c r="K72" s="126"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="129"/>
-      <c r="C73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="128"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="125"/>
+      <c r="K73" s="126"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="129"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="127"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="127"/>
-      <c r="J74" s="127"/>
-      <c r="K74" s="128"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="125"/>
+      <c r="J74" s="125"/>
+      <c r="K74" s="126"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="129"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="127"/>
-      <c r="J75" s="127"/>
-      <c r="K75" s="128"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="126"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="129"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="130"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="128"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="125"/>
+      <c r="K76" s="126"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="129"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="127"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="128"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="126"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="129"/>
-      <c r="C78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="130"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="127"/>
-      <c r="K78" s="128"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="126"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="129"/>
-      <c r="C79" s="127"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="130"/>
-      <c r="I79" s="127"/>
-      <c r="J79" s="127"/>
-      <c r="K79" s="128"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="128"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="125"/>
+      <c r="K79" s="126"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="129"/>
-      <c r="C80" s="127"/>
-      <c r="D80" s="142"/>
-      <c r="G80" s="127"/>
-      <c r="H80" s="130"/>
-      <c r="I80" s="127"/>
-      <c r="J80" s="127"/>
-      <c r="K80" s="128"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="140"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="126"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="129"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="128"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="138"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="125"/>
+      <c r="K81" s="126"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="129"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="130"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="128"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="138"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="126"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="129"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="130"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="157" t="s">
-        <v>126</v>
-      </c>
-      <c r="K83" s="128"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="125"/>
+      <c r="J83" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="K83" s="126"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="129"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="146"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="130"/>
-      <c r="I84" s="127"/>
-      <c r="J84" s="127"/>
-      <c r="K84" s="128"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="144"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="144"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="125"/>
+      <c r="K84" s="126"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="129"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="130"/>
-      <c r="I85" s="127"/>
-      <c r="J85" s="127"/>
-      <c r="K85" s="128"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="125"/>
+      <c r="K85" s="126"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="129"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="130"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="128"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="126"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="129"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="127"/>
-      <c r="H87" s="130"/>
-      <c r="I87" s="127"/>
-      <c r="J87" s="127"/>
-      <c r="K87" s="128"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="125"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="125"/>
+      <c r="J87" s="125"/>
+      <c r="K87" s="126"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="129"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="130"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
-      <c r="K88" s="128"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="125"/>
+      <c r="G88" s="125"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="125"/>
+      <c r="J88" s="125"/>
+      <c r="K88" s="126"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="129"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="128"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="126"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="129"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="157"/>
-      <c r="E90" s="157"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="130"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="128"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="125"/>
+      <c r="J90" s="125"/>
+      <c r="K90" s="126"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="129"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="157"/>
-      <c r="E91" s="157"/>
-      <c r="F91" s="157"/>
-      <c r="G91" s="127"/>
-      <c r="H91" s="130"/>
-      <c r="I91" s="127"/>
-      <c r="J91" s="127"/>
-      <c r="K91" s="128"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="125"/>
+      <c r="J91" s="125"/>
+      <c r="K91" s="126"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="129"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="157"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="157"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="130"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="128"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="146"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="125"/>
+      <c r="J92" s="125"/>
+      <c r="K92" s="126"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="129"/>
-      <c r="C93" s="127"/>
-      <c r="D93" s="157"/>
-      <c r="E93" s="159"/>
-      <c r="F93" s="127"/>
-      <c r="G93" s="127"/>
-      <c r="H93" s="130"/>
-      <c r="I93" s="127"/>
-      <c r="J93" s="127"/>
-      <c r="K93" s="128"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="148"/>
+      <c r="F93" s="125"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="126"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="129"/>
-      <c r="C94" s="127"/>
-      <c r="D94" s="127"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="127"/>
-      <c r="G94" s="127"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="127"/>
-      <c r="J94" s="127"/>
-      <c r="K94" s="128"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="125"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="126"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="129"/>
-      <c r="C95" s="127"/>
-      <c r="D95" s="127"/>
-      <c r="E95" s="127"/>
-      <c r="F95" s="127"/>
-      <c r="G95" s="127"/>
-      <c r="H95" s="130"/>
-      <c r="I95" s="127"/>
-      <c r="J95" s="127"/>
-      <c r="K95" s="128"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="125"/>
+      <c r="K95" s="126"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="129"/>
-      <c r="C96" s="127"/>
-      <c r="D96" s="127"/>
-      <c r="E96" s="127"/>
-      <c r="F96" s="127"/>
-      <c r="G96" s="127"/>
-      <c r="H96" s="130"/>
-      <c r="I96" s="127"/>
-      <c r="J96" s="127"/>
-      <c r="K96" s="128"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="125"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="125"/>
+      <c r="K96" s="126"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="129"/>
-      <c r="C97" s="127"/>
-      <c r="D97" s="127"/>
-      <c r="E97" s="127"/>
-      <c r="F97" s="127"/>
-      <c r="G97" s="127"/>
-      <c r="H97" s="130"/>
-      <c r="I97" s="127"/>
-      <c r="J97" s="127"/>
-      <c r="K97" s="128"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="128"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="126"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="129"/>
-      <c r="C98" s="127"/>
-      <c r="D98" s="127"/>
-      <c r="E98" s="127"/>
-      <c r="F98" s="127"/>
-      <c r="G98" s="127"/>
-      <c r="H98" s="130"/>
-      <c r="I98" s="127"/>
-      <c r="J98" s="127"/>
-      <c r="K98" s="128"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="128"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="126"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="129"/>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="127"/>
-      <c r="F99" s="127"/>
-      <c r="G99" s="127"/>
-      <c r="H99" s="130"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="128"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="128"/>
+      <c r="I99" s="125"/>
+      <c r="J99" s="125"/>
+      <c r="K99" s="126"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="129"/>
-      <c r="C100" s="127"/>
-      <c r="D100" s="127"/>
-      <c r="E100" s="127"/>
-      <c r="F100" s="127"/>
-      <c r="G100" s="127"/>
-      <c r="H100" s="130"/>
-      <c r="I100" s="127"/>
-      <c r="J100" s="127"/>
-      <c r="K100" s="128"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="125"/>
+      <c r="J100" s="125"/>
+      <c r="K100" s="126"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="129"/>
-      <c r="C101" s="127"/>
-      <c r="D101" s="127"/>
-      <c r="E101" s="127"/>
-      <c r="F101" s="127"/>
-      <c r="G101" s="127"/>
-      <c r="H101" s="130"/>
-      <c r="I101" s="127"/>
-      <c r="J101" s="127"/>
-      <c r="K101" s="128"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="125"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="126"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="129"/>
-      <c r="C102" s="127"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="127"/>
-      <c r="F102" s="127"/>
-      <c r="G102" s="127"/>
-      <c r="H102" s="130"/>
-      <c r="I102" s="127"/>
-      <c r="J102" s="127"/>
-      <c r="K102" s="128"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="125"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
+      <c r="F102" s="125"/>
+      <c r="G102" s="125"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="125"/>
+      <c r="J102" s="125"/>
+      <c r="K102" s="126"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="129"/>
-      <c r="C103" s="127"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
-      <c r="F103" s="127"/>
-      <c r="G103" s="127"/>
-      <c r="H103" s="130"/>
-      <c r="I103" s="127"/>
-      <c r="J103" s="127"/>
-      <c r="K103" s="128"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
+      <c r="F103" s="125"/>
+      <c r="G103" s="125"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="125"/>
+      <c r="J103" s="125"/>
+      <c r="K103" s="126"/>
     </row>
     <row r="104" spans="2:11" ht="21">
-      <c r="B104" s="129"/>
-      <c r="C104" s="127"/>
-      <c r="D104" s="127"/>
-      <c r="E104" s="127"/>
-      <c r="F104" s="127"/>
-      <c r="G104" s="127"/>
-      <c r="H104" s="130"/>
-      <c r="I104" s="127"/>
-      <c r="J104" s="166" t="s">
-        <v>125</v>
-      </c>
-      <c r="K104" s="128"/>
+      <c r="B104" s="127"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="125"/>
+      <c r="F104" s="125"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="128"/>
+      <c r="I104" s="125"/>
+      <c r="J104" s="155" t="s">
+        <v>120</v>
+      </c>
+      <c r="K104" s="126"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="129"/>
-      <c r="C105" s="127"/>
-      <c r="D105" s="127"/>
-      <c r="E105" s="127"/>
-      <c r="F105" s="127"/>
-      <c r="G105" s="127"/>
-      <c r="H105" s="130"/>
-      <c r="I105" s="127"/>
-      <c r="J105" s="127"/>
-      <c r="K105" s="128"/>
+      <c r="B105" s="127"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
+      <c r="K105" s="126"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="129"/>
-      <c r="C106" s="127"/>
-      <c r="D106" s="127"/>
-      <c r="E106" s="127"/>
-      <c r="F106" s="127"/>
-      <c r="G106" s="127"/>
-      <c r="H106" s="130"/>
-      <c r="I106" s="127"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="128"/>
+      <c r="B106" s="127"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="125"/>
+      <c r="F106" s="125"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="128"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="125"/>
+      <c r="K106" s="126"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="129"/>
-      <c r="C107" s="127"/>
-      <c r="D107" s="127"/>
-      <c r="E107" s="127"/>
-      <c r="F107" s="127"/>
-      <c r="G107" s="127"/>
-      <c r="H107" s="130"/>
-      <c r="I107" s="127"/>
-      <c r="J107" s="127"/>
+      <c r="B107" s="127"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="128"/>
+      <c r="I107" s="125"/>
+      <c r="J107" s="125"/>
       <c r="K107"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="129"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="127"/>
-      <c r="E108" s="127"/>
-      <c r="F108" s="127"/>
-      <c r="G108" s="127"/>
-      <c r="H108" s="130"/>
-      <c r="I108" s="127"/>
-      <c r="J108" s="127"/>
-      <c r="K108" s="128"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="125"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="128"/>
+      <c r="I108" s="125"/>
+      <c r="J108" s="125"/>
+      <c r="K108" s="126"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="129"/>
-      <c r="C109" s="127"/>
-      <c r="D109" s="127"/>
-      <c r="E109" s="127"/>
-      <c r="F109" s="127"/>
-      <c r="G109" s="127"/>
-      <c r="H109" s="130"/>
-      <c r="I109" s="127"/>
-      <c r="J109" s="127"/>
-      <c r="K109" s="128"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="125"/>
+      <c r="G109" s="125"/>
+      <c r="H109" s="128"/>
+      <c r="I109" s="125"/>
+      <c r="J109" s="125"/>
+      <c r="K109" s="126"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="129"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="127"/>
-      <c r="G110" s="127"/>
-      <c r="H110" s="130"/>
-      <c r="I110" s="127"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="128"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="125"/>
+      <c r="G110" s="125"/>
+      <c r="H110" s="128"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="125"/>
+      <c r="K110" s="126"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="129"/>
-      <c r="C111" s="127"/>
-      <c r="D111" s="127"/>
-      <c r="E111" s="127"/>
-      <c r="F111" s="127"/>
-      <c r="G111" s="127"/>
-      <c r="H111" s="130"/>
-      <c r="I111" s="127"/>
-      <c r="J111" s="127"/>
-      <c r="K111" s="128"/>
+      <c r="B111" s="127"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="125"/>
+      <c r="G111" s="125"/>
+      <c r="H111" s="128"/>
+      <c r="I111" s="125"/>
+      <c r="J111" s="125"/>
+      <c r="K111" s="126"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="129"/>
-      <c r="C112" s="127"/>
-      <c r="D112" s="127"/>
-      <c r="E112" s="127"/>
-      <c r="F112" s="127"/>
-      <c r="G112" s="127"/>
-      <c r="H112" s="130"/>
-      <c r="I112" s="127"/>
-      <c r="J112" s="127"/>
-      <c r="K112" s="128"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="125"/>
+      <c r="G112" s="125"/>
+      <c r="H112" s="128"/>
+      <c r="I112" s="125"/>
+      <c r="J112" s="125"/>
+      <c r="K112" s="126"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="129"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="130"/>
-      <c r="I113" s="127"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="128"/>
+      <c r="B113" s="127"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="128"/>
+      <c r="I113" s="125"/>
+      <c r="J113" s="125"/>
+      <c r="K113" s="126"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="129"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
-      <c r="H114" s="130"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="127"/>
-      <c r="K114" s="128"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="128"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="125"/>
+      <c r="K114" s="126"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="129"/>
-      <c r="C115" s="127"/>
-      <c r="D115" s="127"/>
-      <c r="E115" s="127"/>
-      <c r="F115" s="127"/>
-      <c r="G115" s="127"/>
-      <c r="H115" s="130"/>
-      <c r="I115" s="127"/>
-      <c r="J115" s="127"/>
-      <c r="K115" s="128"/>
+      <c r="B115" s="127"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="128"/>
+      <c r="I115" s="125"/>
+      <c r="J115" s="125"/>
+      <c r="K115" s="126"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="129"/>
-      <c r="C116" s="127"/>
-      <c r="D116" s="127"/>
-      <c r="E116" s="127"/>
-      <c r="F116" s="127"/>
-      <c r="G116" s="127"/>
-      <c r="H116" s="130"/>
-      <c r="I116" s="127"/>
-      <c r="J116" s="127"/>
-      <c r="K116" s="128"/>
+      <c r="B116" s="127"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="125"/>
+      <c r="H116" s="128"/>
+      <c r="I116" s="125"/>
+      <c r="J116" s="125"/>
+      <c r="K116" s="126"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="129"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="127"/>
-      <c r="E117" s="127"/>
-      <c r="F117" s="127"/>
-      <c r="G117" s="127"/>
-      <c r="H117" s="130"/>
-      <c r="I117" s="127"/>
-      <c r="J117" s="127"/>
-      <c r="K117" s="128"/>
+      <c r="B117" s="127"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="125"/>
+      <c r="H117" s="128"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="125"/>
+      <c r="K117" s="126"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="129"/>
-      <c r="C118" s="127"/>
-      <c r="D118" s="127"/>
-      <c r="E118" s="127"/>
-      <c r="F118" s="127"/>
-      <c r="G118" s="127"/>
-      <c r="H118" s="130"/>
-      <c r="I118" s="127"/>
-      <c r="J118" s="127"/>
-      <c r="K118" s="128"/>
+      <c r="B118" s="127"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="125"/>
+      <c r="G118" s="125"/>
+      <c r="H118" s="128"/>
+      <c r="I118" s="125"/>
+      <c r="J118" s="125"/>
+      <c r="K118" s="126"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="129"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="127"/>
-      <c r="E119" s="127"/>
-      <c r="F119" s="127"/>
-      <c r="G119" s="127"/>
-      <c r="H119" s="130"/>
-      <c r="I119" s="127"/>
-      <c r="J119" s="127"/>
-      <c r="K119" s="128"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="125"/>
+      <c r="E119" s="125"/>
+      <c r="F119" s="125"/>
+      <c r="G119" s="125"/>
+      <c r="H119" s="128"/>
+      <c r="I119" s="125"/>
+      <c r="J119" s="125"/>
+      <c r="K119" s="126"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="129"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="127"/>
-      <c r="E120" s="127"/>
-      <c r="F120" s="127"/>
-      <c r="G120" s="127"/>
-      <c r="H120" s="130"/>
-      <c r="I120" s="127"/>
-      <c r="J120" s="127"/>
-      <c r="K120" s="128"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
+      <c r="F120" s="125"/>
+      <c r="G120" s="125"/>
+      <c r="H120" s="128"/>
+      <c r="I120" s="125"/>
+      <c r="J120" s="125"/>
+      <c r="K120" s="126"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="129"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
-      <c r="F121" s="127"/>
-      <c r="G121" s="127"/>
-      <c r="H121" s="130"/>
-      <c r="I121" s="127"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="128"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="125"/>
+      <c r="H121" s="128"/>
+      <c r="I121" s="125"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="126"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="129"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
-      <c r="F122" s="127"/>
-      <c r="G122" s="127"/>
-      <c r="H122" s="130"/>
-      <c r="I122" s="127"/>
-      <c r="J122" s="127"/>
-      <c r="K122" s="128"/>
+      <c r="B122" s="127"/>
+      <c r="C122" s="125"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="125"/>
+      <c r="G122" s="125"/>
+      <c r="H122" s="128"/>
+      <c r="I122" s="125"/>
+      <c r="J122" s="125"/>
+      <c r="K122" s="126"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="129"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
-      <c r="F123" s="127"/>
-      <c r="G123" s="127"/>
-      <c r="H123" s="130"/>
-      <c r="I123" s="127"/>
-      <c r="J123" s="127"/>
-      <c r="K123" s="128"/>
+      <c r="B123" s="127"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="125"/>
+      <c r="F123" s="125"/>
+      <c r="G123" s="125"/>
+      <c r="H123" s="128"/>
+      <c r="I123" s="125"/>
+      <c r="J123" s="125"/>
+      <c r="K123" s="126"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="129"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
-      <c r="F124" s="127"/>
-      <c r="G124" s="127"/>
-      <c r="H124" s="130"/>
-      <c r="I124" s="127"/>
-      <c r="J124" s="127"/>
-      <c r="K124" s="128"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="125"/>
+      <c r="G124" s="125"/>
+      <c r="H124" s="128"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="125"/>
+      <c r="K124" s="126"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="129"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
-      <c r="F125" s="127"/>
-      <c r="G125" s="127"/>
-      <c r="H125" s="130"/>
-      <c r="I125" s="127"/>
-      <c r="J125" s="127"/>
-      <c r="K125" s="128"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
+      <c r="G125" s="125"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="125"/>
+      <c r="K125" s="126"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="129"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="127"/>
-      <c r="H126" s="130"/>
-      <c r="I126" s="127"/>
-      <c r="J126" s="127"/>
-      <c r="K126" s="128"/>
+      <c r="B126" s="127"/>
+      <c r="C126" s="125"/>
+      <c r="D126" s="125"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="125"/>
+      <c r="G126" s="125"/>
+      <c r="H126" s="128"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="125"/>
+      <c r="K126" s="126"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="129"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
-      <c r="F127" s="127"/>
-      <c r="G127" s="127"/>
-      <c r="H127" s="130"/>
-      <c r="I127" s="127"/>
-      <c r="J127" s="127"/>
-      <c r="K127" s="128"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="125"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="128"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="126"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="129"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
-      <c r="F128" s="127"/>
-      <c r="G128" s="127"/>
-      <c r="H128" s="130"/>
-      <c r="I128" s="127"/>
-      <c r="J128" s="127"/>
-      <c r="K128" s="128"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="125"/>
+      <c r="G128" s="125"/>
+      <c r="H128" s="128"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="125"/>
+      <c r="K128" s="126"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="129"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
-      <c r="F129" s="127"/>
-      <c r="G129" s="127"/>
-      <c r="H129" s="130"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="128"/>
+      <c r="B129" s="127"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="125"/>
+      <c r="E129" s="125"/>
+      <c r="F129" s="125"/>
+      <c r="G129" s="125"/>
+      <c r="H129" s="128"/>
+      <c r="I129" s="125"/>
+      <c r="J129" s="125"/>
+      <c r="K129" s="126"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="129"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="127"/>
-      <c r="E130" s="127"/>
-      <c r="F130" s="127"/>
-      <c r="G130" s="127"/>
-      <c r="H130" s="130"/>
-      <c r="I130" s="127"/>
-      <c r="J130" s="127"/>
-      <c r="K130" s="128"/>
+      <c r="B130" s="127"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="125"/>
+      <c r="E130" s="125"/>
+      <c r="F130" s="125"/>
+      <c r="G130" s="125"/>
+      <c r="H130" s="128"/>
+      <c r="I130" s="125"/>
+      <c r="J130" s="125"/>
+      <c r="K130" s="126"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="129"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
-      <c r="F131" s="127"/>
-      <c r="G131" s="127"/>
-      <c r="H131" s="130"/>
-      <c r="I131" s="127"/>
-      <c r="J131" s="127"/>
-      <c r="K131" s="128"/>
+      <c r="B131" s="127"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="125"/>
+      <c r="E131" s="125"/>
+      <c r="F131" s="125"/>
+      <c r="G131" s="125"/>
+      <c r="H131" s="128"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="126"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="129"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="127"/>
-      <c r="E132" s="127"/>
-      <c r="F132" s="127"/>
-      <c r="G132" s="127"/>
-      <c r="H132" s="130"/>
-      <c r="I132" s="127"/>
-      <c r="J132" s="127"/>
-      <c r="K132" s="128"/>
+      <c r="B132" s="127"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="125"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="125"/>
+      <c r="G132" s="125"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="125"/>
+      <c r="J132" s="125"/>
+      <c r="K132" s="126"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="129"/>
-      <c r="C133" s="127"/>
-      <c r="D133" s="127"/>
-      <c r="E133" s="127"/>
-      <c r="F133" s="127"/>
-      <c r="G133" s="127"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="127"/>
-      <c r="J133" s="127"/>
-      <c r="K133" s="128"/>
+      <c r="B133" s="127"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="125"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="128"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="126"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="129"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="127"/>
-      <c r="E134" s="127"/>
-      <c r="F134" s="127"/>
-      <c r="G134" s="127"/>
-      <c r="H134" s="130"/>
-      <c r="I134" s="127"/>
-      <c r="J134" s="127"/>
-      <c r="K134" s="128"/>
+      <c r="B134" s="127"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="125"/>
+      <c r="E134" s="125"/>
+      <c r="F134" s="125"/>
+      <c r="G134" s="125"/>
+      <c r="H134" s="128"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="125"/>
+      <c r="K134" s="126"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="129"/>
-      <c r="C135" s="127"/>
-      <c r="D135" s="127"/>
-      <c r="E135" s="127"/>
-      <c r="F135" s="127"/>
-      <c r="G135" s="127"/>
-      <c r="H135" s="130"/>
-      <c r="I135" s="127"/>
-      <c r="J135" s="127"/>
-      <c r="K135" s="128"/>
+      <c r="B135" s="127"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="125"/>
+      <c r="E135" s="125"/>
+      <c r="F135" s="125"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="125"/>
+      <c r="K135" s="126"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="129"/>
-      <c r="C136" s="127"/>
-      <c r="D136" s="127"/>
-      <c r="E136" s="127"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="127"/>
-      <c r="H136" s="130"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="127"/>
-      <c r="K136" s="128"/>
+      <c r="B136" s="127"/>
+      <c r="C136" s="125"/>
+      <c r="D136" s="125"/>
+      <c r="E136" s="125"/>
+      <c r="F136" s="125"/>
+      <c r="G136" s="125"/>
+      <c r="H136" s="128"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="125"/>
+      <c r="K136" s="126"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="129"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="127"/>
-      <c r="H137" s="130"/>
-      <c r="I137" s="127"/>
-      <c r="J137" s="127"/>
-      <c r="K137" s="128"/>
+      <c r="B137" s="127"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="125"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="125"/>
+      <c r="G137" s="125"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="126"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="129"/>
-      <c r="C138" s="127"/>
-      <c r="D138" s="127"/>
-      <c r="E138" s="127"/>
-      <c r="F138" s="127"/>
-      <c r="G138" s="127"/>
-      <c r="H138" s="130"/>
-      <c r="I138" s="127"/>
-      <c r="J138" s="127"/>
-      <c r="K138" s="128"/>
+      <c r="B138" s="127"/>
+      <c r="C138" s="125"/>
+      <c r="D138" s="125"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="125"/>
+      <c r="G138" s="125"/>
+      <c r="H138" s="128"/>
+      <c r="I138" s="125"/>
+      <c r="J138" s="125"/>
+      <c r="K138" s="126"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="129"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="127"/>
-      <c r="E139" s="127"/>
-      <c r="F139" s="127"/>
-      <c r="G139" s="127"/>
-      <c r="H139" s="130"/>
-      <c r="I139" s="127"/>
-      <c r="J139" s="127"/>
-      <c r="K139" s="128"/>
+      <c r="B139" s="127"/>
+      <c r="C139" s="125"/>
+      <c r="D139" s="125"/>
+      <c r="E139" s="125"/>
+      <c r="F139" s="125"/>
+      <c r="G139" s="125"/>
+      <c r="H139" s="128"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="125"/>
+      <c r="K139" s="126"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="129"/>
-      <c r="C140" s="127"/>
-      <c r="D140" s="127"/>
-      <c r="E140" s="127"/>
-      <c r="F140" s="127"/>
-      <c r="G140" s="127"/>
-      <c r="H140" s="130"/>
-      <c r="I140" s="127"/>
-      <c r="J140" s="127"/>
-      <c r="K140" s="128"/>
+      <c r="B140" s="127"/>
+      <c r="C140" s="125"/>
+      <c r="D140" s="125"/>
+      <c r="E140" s="125"/>
+      <c r="F140" s="125"/>
+      <c r="G140" s="125"/>
+      <c r="H140" s="128"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="125"/>
+      <c r="K140" s="126"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="129"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="127"/>
-      <c r="E141" s="127"/>
-      <c r="F141" s="127"/>
-      <c r="G141" s="127"/>
-      <c r="H141" s="130"/>
-      <c r="I141" s="127"/>
-      <c r="J141" s="127"/>
-      <c r="K141" s="128"/>
+      <c r="B141" s="127"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="125"/>
+      <c r="F141" s="125"/>
+      <c r="G141" s="125"/>
+      <c r="H141" s="128"/>
+      <c r="I141" s="125"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="126"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="129"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="127"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="127"/>
-      <c r="G142" s="127"/>
-      <c r="H142" s="130"/>
-      <c r="I142" s="127"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="128"/>
+      <c r="B142" s="127"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="125"/>
+      <c r="F142" s="125"/>
+      <c r="G142" s="125"/>
+      <c r="H142" s="128"/>
+      <c r="I142" s="125"/>
+      <c r="J142" s="125"/>
+      <c r="K142" s="126"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="129"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="127"/>
-      <c r="E143" s="127"/>
-      <c r="F143" s="127"/>
-      <c r="G143" s="127"/>
-      <c r="H143" s="130"/>
-      <c r="I143" s="127"/>
-      <c r="J143" s="127"/>
-      <c r="K143" s="128"/>
+      <c r="B143" s="127"/>
+      <c r="C143" s="125"/>
+      <c r="D143" s="125"/>
+      <c r="E143" s="125"/>
+      <c r="F143" s="125"/>
+      <c r="G143" s="125"/>
+      <c r="H143" s="128"/>
+      <c r="I143" s="125"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="126"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="129"/>
-      <c r="C144" s="127"/>
-      <c r="D144" s="127"/>
-      <c r="E144" s="127"/>
-      <c r="F144" s="127"/>
-      <c r="G144" s="127"/>
-      <c r="H144" s="130"/>
-      <c r="I144" s="127"/>
-      <c r="J144" s="127"/>
-      <c r="K144" s="128"/>
+      <c r="B144" s="127"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="125"/>
+      <c r="F144" s="125"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="128"/>
+      <c r="I144" s="125"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="126"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="129"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="127"/>
-      <c r="G145" s="127"/>
-      <c r="H145" s="130"/>
-      <c r="I145" s="127"/>
-      <c r="J145" s="127"/>
-      <c r="K145" s="128"/>
+      <c r="B145" s="127"/>
+      <c r="C145" s="125"/>
+      <c r="D145" s="125"/>
+      <c r="E145" s="125"/>
+      <c r="F145" s="125"/>
+      <c r="G145" s="125"/>
+      <c r="H145" s="128"/>
+      <c r="I145" s="125"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="126"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="129"/>
-      <c r="C146" s="127"/>
-      <c r="D146" s="127"/>
-      <c r="E146" s="127"/>
-      <c r="F146" s="127"/>
-      <c r="G146" s="127"/>
-      <c r="H146" s="130"/>
-      <c r="I146" s="127"/>
-      <c r="J146" s="127"/>
-      <c r="K146" s="128"/>
+      <c r="B146" s="127"/>
+      <c r="C146" s="125"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="128"/>
+      <c r="I146" s="125"/>
+      <c r="J146" s="125"/>
+      <c r="K146" s="126"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="129"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="127"/>
-      <c r="E147" s="127"/>
-      <c r="F147" s="127"/>
-      <c r="G147" s="127"/>
-      <c r="H147" s="130"/>
-      <c r="I147" s="127"/>
-      <c r="J147" s="127"/>
-      <c r="K147" s="128"/>
+      <c r="B147" s="127"/>
+      <c r="C147" s="125"/>
+      <c r="D147" s="125"/>
+      <c r="E147" s="125"/>
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="128"/>
+      <c r="I147" s="125"/>
+      <c r="J147" s="125"/>
+      <c r="K147" s="126"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="129"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="127"/>
-      <c r="E148" s="127"/>
-      <c r="F148" s="127"/>
-      <c r="G148" s="127"/>
-      <c r="H148" s="130"/>
-      <c r="I148" s="127"/>
-      <c r="J148" s="127"/>
-      <c r="K148" s="128"/>
+      <c r="B148" s="127"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="125"/>
+      <c r="E148" s="125"/>
+      <c r="F148" s="125"/>
+      <c r="G148" s="125"/>
+      <c r="H148" s="128"/>
+      <c r="I148" s="125"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="126"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="129"/>
-      <c r="C149" s="127"/>
-      <c r="D149" s="127"/>
-      <c r="E149" s="127"/>
-      <c r="F149" s="127"/>
-      <c r="G149" s="127"/>
-      <c r="H149" s="130"/>
-      <c r="I149" s="127"/>
-      <c r="J149" s="127"/>
-      <c r="K149" s="128"/>
+      <c r="B149" s="127"/>
+      <c r="C149" s="125"/>
+      <c r="D149" s="125"/>
+      <c r="E149" s="125"/>
+      <c r="F149" s="125"/>
+      <c r="G149" s="125"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="125"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="126"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="129"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="127"/>
-      <c r="E150" s="127"/>
-      <c r="F150" s="127"/>
-      <c r="G150" s="127"/>
-      <c r="H150" s="130"/>
-      <c r="I150" s="127"/>
-      <c r="J150" s="127"/>
-      <c r="K150" s="128"/>
+      <c r="B150" s="127"/>
+      <c r="C150" s="125"/>
+      <c r="D150" s="125"/>
+      <c r="E150" s="125"/>
+      <c r="F150" s="125"/>
+      <c r="G150" s="125"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="125"/>
+      <c r="J150" s="125"/>
+      <c r="K150" s="126"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="129"/>
-      <c r="C151" s="127"/>
-      <c r="D151" s="127"/>
-      <c r="E151" s="127"/>
-      <c r="F151" s="127"/>
-      <c r="G151" s="127"/>
-      <c r="H151" s="130"/>
-      <c r="I151" s="127"/>
-      <c r="J151" s="127"/>
-      <c r="K151" s="128"/>
+      <c r="B151" s="127"/>
+      <c r="C151" s="125"/>
+      <c r="D151" s="125"/>
+      <c r="E151" s="125"/>
+      <c r="F151" s="125"/>
+      <c r="G151" s="125"/>
+      <c r="H151" s="128"/>
+      <c r="I151" s="125"/>
+      <c r="J151" s="125"/>
+      <c r="K151" s="126"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="129"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="127"/>
-      <c r="E152" s="127"/>
-      <c r="F152" s="127"/>
-      <c r="G152" s="127"/>
-      <c r="H152" s="130"/>
-      <c r="I152" s="127"/>
-      <c r="J152" s="127"/>
-      <c r="K152" s="128"/>
+      <c r="B152" s="127"/>
+      <c r="C152" s="125"/>
+      <c r="D152" s="125"/>
+      <c r="E152" s="125"/>
+      <c r="F152" s="125"/>
+      <c r="G152" s="125"/>
+      <c r="H152" s="128"/>
+      <c r="I152" s="125"/>
+      <c r="J152" s="125"/>
+      <c r="K152" s="126"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="129"/>
-      <c r="C153" s="127"/>
-      <c r="D153" s="127"/>
-      <c r="E153" s="127"/>
-      <c r="F153" s="127"/>
-      <c r="G153" s="127"/>
-      <c r="H153" s="130"/>
-      <c r="I153" s="127"/>
-      <c r="J153" s="127"/>
-      <c r="K153" s="128"/>
+      <c r="B153" s="127"/>
+      <c r="C153" s="125"/>
+      <c r="D153" s="125"/>
+      <c r="E153" s="125"/>
+      <c r="F153" s="125"/>
+      <c r="G153" s="125"/>
+      <c r="H153" s="128"/>
+      <c r="I153" s="125"/>
+      <c r="J153" s="125"/>
+      <c r="K153" s="126"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="129"/>
-      <c r="C154" s="127"/>
-      <c r="D154" s="127"/>
-      <c r="E154" s="127"/>
-      <c r="F154" s="127"/>
-      <c r="G154" s="127"/>
-      <c r="H154" s="130"/>
-      <c r="I154" s="127"/>
-      <c r="J154" s="127"/>
-      <c r="K154" s="128"/>
+      <c r="B154" s="127"/>
+      <c r="C154" s="125"/>
+      <c r="D154" s="125"/>
+      <c r="E154" s="125"/>
+      <c r="F154" s="125"/>
+      <c r="G154" s="125"/>
+      <c r="H154" s="128"/>
+      <c r="I154" s="125"/>
+      <c r="J154" s="125"/>
+      <c r="K154" s="126"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="129"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="130"/>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127"/>
-      <c r="K155" s="128"/>
+      <c r="B155" s="127"/>
+      <c r="C155" s="125"/>
+      <c r="D155" s="125"/>
+      <c r="E155" s="125"/>
+      <c r="F155" s="125"/>
+      <c r="G155" s="125"/>
+      <c r="H155" s="128"/>
+      <c r="I155" s="125"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="126"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="129"/>
-      <c r="C156" s="127"/>
-      <c r="D156" s="127"/>
-      <c r="E156" s="127"/>
-      <c r="F156" s="127"/>
-      <c r="G156" s="127"/>
-      <c r="H156" s="130"/>
-      <c r="I156" s="127"/>
-      <c r="J156" s="127"/>
-      <c r="K156" s="128"/>
+      <c r="B156" s="127"/>
+      <c r="C156" s="125"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="125"/>
+      <c r="G156" s="125"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="125"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="126"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="129"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="127"/>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="130"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="128"/>
+      <c r="B157" s="127"/>
+      <c r="C157" s="125"/>
+      <c r="D157" s="125"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="125"/>
+      <c r="G157" s="125"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="125"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="126"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="129"/>
-      <c r="C158" s="127"/>
-      <c r="D158" s="127"/>
-      <c r="E158" s="127"/>
-      <c r="F158" s="127"/>
-      <c r="G158" s="127"/>
-      <c r="H158" s="130"/>
-      <c r="I158" s="127"/>
-      <c r="J158" s="127"/>
-      <c r="K158" s="128"/>
+      <c r="B158" s="127"/>
+      <c r="C158" s="125"/>
+      <c r="D158" s="125"/>
+      <c r="E158" s="125"/>
+      <c r="F158" s="125"/>
+      <c r="G158" s="125"/>
+      <c r="H158" s="128"/>
+      <c r="I158" s="125"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="126"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="129"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="127"/>
-      <c r="E159" s="127"/>
-      <c r="F159" s="127"/>
-      <c r="G159" s="127"/>
-      <c r="H159" s="130"/>
-      <c r="I159" s="127"/>
-      <c r="J159" s="127"/>
-      <c r="K159" s="128"/>
+      <c r="B159" s="127"/>
+      <c r="C159" s="125"/>
+      <c r="D159" s="125"/>
+      <c r="E159" s="125"/>
+      <c r="F159" s="125"/>
+      <c r="G159" s="125"/>
+      <c r="H159" s="128"/>
+      <c r="I159" s="125"/>
+      <c r="J159" s="125"/>
+      <c r="K159" s="126"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="129"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="127"/>
-      <c r="E160" s="127"/>
-      <c r="F160" s="127"/>
-      <c r="G160" s="127"/>
-      <c r="H160" s="130"/>
-      <c r="I160" s="127"/>
-      <c r="J160" s="127"/>
-      <c r="K160" s="128"/>
+      <c r="B160" s="127"/>
+      <c r="C160" s="125"/>
+      <c r="D160" s="125"/>
+      <c r="E160" s="125"/>
+      <c r="F160" s="125"/>
+      <c r="G160" s="125"/>
+      <c r="H160" s="128"/>
+      <c r="I160" s="125"/>
+      <c r="J160" s="125"/>
+      <c r="K160" s="126"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="129"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="127"/>
-      <c r="E161" s="127"/>
-      <c r="F161" s="127"/>
-      <c r="G161" s="127"/>
-      <c r="H161" s="130"/>
-      <c r="I161" s="127"/>
-      <c r="J161" s="127"/>
-      <c r="K161" s="128"/>
+      <c r="B161" s="127"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="125"/>
+      <c r="F161" s="125"/>
+      <c r="G161" s="125"/>
+      <c r="H161" s="128"/>
+      <c r="I161" s="125"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="126"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="129"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="127"/>
-      <c r="E162" s="127"/>
-      <c r="F162" s="127"/>
-      <c r="G162" s="127"/>
-      <c r="H162" s="130"/>
-      <c r="I162" s="127"/>
-      <c r="J162" s="127"/>
-      <c r="K162" s="128"/>
+      <c r="B162" s="127"/>
+      <c r="C162" s="125"/>
+      <c r="D162" s="125"/>
+      <c r="E162" s="125"/>
+      <c r="F162" s="125"/>
+      <c r="G162" s="125"/>
+      <c r="H162" s="128"/>
+      <c r="I162" s="125"/>
+      <c r="J162" s="125"/>
+      <c r="K162" s="126"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="129"/>
-      <c r="C163" s="127"/>
-      <c r="D163" s="127"/>
-      <c r="E163" s="127"/>
-      <c r="F163" s="127"/>
-      <c r="G163" s="127"/>
-      <c r="H163" s="130"/>
-      <c r="I163" s="127"/>
-      <c r="J163" s="127"/>
-      <c r="K163" s="128"/>
+      <c r="B163" s="127"/>
+      <c r="C163" s="125"/>
+      <c r="D163" s="125"/>
+      <c r="E163" s="125"/>
+      <c r="F163" s="125"/>
+      <c r="G163" s="125"/>
+      <c r="H163" s="128"/>
+      <c r="I163" s="125"/>
+      <c r="J163" s="125"/>
+      <c r="K163" s="126"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="129"/>
-      <c r="C164" s="127"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="127"/>
-      <c r="F164" s="127"/>
-      <c r="G164" s="127"/>
-      <c r="H164" s="130"/>
-      <c r="I164" s="127"/>
-      <c r="J164" s="127"/>
-      <c r="K164" s="128"/>
+      <c r="B164" s="127"/>
+      <c r="C164" s="125"/>
+      <c r="D164" s="125"/>
+      <c r="E164" s="125"/>
+      <c r="F164" s="125"/>
+      <c r="G164" s="125"/>
+      <c r="H164" s="128"/>
+      <c r="I164" s="125"/>
+      <c r="J164" s="125"/>
+      <c r="K164" s="126"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="129"/>
-      <c r="C165" s="127"/>
-      <c r="D165" s="127"/>
-      <c r="E165" s="127"/>
-      <c r="F165" s="127"/>
-      <c r="G165" s="127"/>
-      <c r="H165" s="130"/>
-      <c r="I165" s="127"/>
-      <c r="J165" s="127"/>
-      <c r="K165" s="128"/>
+      <c r="B165" s="127"/>
+      <c r="C165" s="125"/>
+      <c r="D165" s="125"/>
+      <c r="E165" s="125"/>
+      <c r="F165" s="125"/>
+      <c r="G165" s="125"/>
+      <c r="H165" s="128"/>
+      <c r="I165" s="125"/>
+      <c r="J165" s="125"/>
+      <c r="K165" s="126"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="129"/>
-      <c r="C166" s="127"/>
-      <c r="D166" s="127"/>
-      <c r="E166" s="127"/>
-      <c r="F166" s="127"/>
-      <c r="G166" s="127"/>
-      <c r="H166" s="130"/>
-      <c r="I166" s="127"/>
-      <c r="J166" s="127"/>
-      <c r="K166" s="128"/>
+      <c r="B166" s="127"/>
+      <c r="C166" s="125"/>
+      <c r="D166" s="125"/>
+      <c r="E166" s="125"/>
+      <c r="F166" s="125"/>
+      <c r="G166" s="125"/>
+      <c r="H166" s="128"/>
+      <c r="I166" s="125"/>
+      <c r="J166" s="125"/>
+      <c r="K166" s="126"/>
     </row>
   </sheetData>
   <hyperlinks>
